--- a/data/trans_orig/P5709-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5709-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>271575</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>249651</v>
+        <v>248720</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>293738</v>
+        <v>293601</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5745276936006538</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5281480017617478</v>
+        <v>0.5261781924281399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6214148653076415</v>
+        <v>0.6211252950372945</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -765,19 +765,19 @@
         <v>163403</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146693</v>
+        <v>143827</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>180576</v>
+        <v>180480</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5348184774393071</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4801263912934907</v>
+        <v>0.4707458821290147</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5910266495289056</v>
+        <v>0.590714345069712</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>424</v>
@@ -786,19 +786,19 @@
         <v>434977</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>408517</v>
+        <v>407491</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>463476</v>
+        <v>460035</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.558937867468056</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5249374794050274</v>
+        <v>0.5236182902405054</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5955579421289404</v>
+        <v>0.5911371086073021</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>122122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103458</v>
+        <v>104133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>142250</v>
+        <v>144490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2583548326338394</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2188692806187168</v>
+        <v>0.2202982158231249</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3009361601678068</v>
+        <v>0.3056742153762926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -836,19 +836,19 @@
         <v>88148</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73226</v>
+        <v>74321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>105441</v>
+        <v>106753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.288510803586615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2396688756462185</v>
+        <v>0.2432524782692942</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3451089807585767</v>
+        <v>0.3494029521583715</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>202</v>
@@ -857,19 +857,19 @@
         <v>210271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>187475</v>
+        <v>184866</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>237337</v>
+        <v>236338</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2701940576163528</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2409019478846764</v>
+        <v>0.2375500639407222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3049744124430699</v>
+        <v>0.3036896596699691</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>55905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42850</v>
+        <v>42433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72821</v>
+        <v>71268</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1182684719252116</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09065086528586368</v>
+        <v>0.08976847474659842</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1540552407791696</v>
+        <v>0.1507710631198098</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -907,19 +907,19 @@
         <v>36529</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26429</v>
+        <v>26263</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47895</v>
+        <v>48138</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1195598173027857</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08650397800290216</v>
+        <v>0.0859582162694551</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1567621869112495</v>
+        <v>0.1575552815331787</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>88</v>
@@ -928,19 +928,19 @@
         <v>92434</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75869</v>
+        <v>75104</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>110589</v>
+        <v>111970</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1187754537259028</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09748989985888964</v>
+        <v>0.09650708676807659</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1421043999450518</v>
+        <v>0.1438789477958565</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>16005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9106</v>
+        <v>9121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25662</v>
+        <v>26247</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0338588564574528</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01926327939173331</v>
+        <v>0.01929628302926507</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05428841235961614</v>
+        <v>0.05552722139673785</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -978,19 +978,19 @@
         <v>14314</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8002</v>
+        <v>7958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23744</v>
+        <v>25882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04685048648052493</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02619093849354075</v>
+        <v>0.02604739114747028</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07771322810033478</v>
+        <v>0.08471310805408501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -999,19 +999,19 @@
         <v>30319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20199</v>
+        <v>19704</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43788</v>
+        <v>42941</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03895936643518143</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02595505484222506</v>
+        <v>0.0253198668920915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05626695369488279</v>
+        <v>0.05517902326858768</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>7086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2755</v>
+        <v>2708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14405</v>
+        <v>14442</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0149901453828424</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005828095546688158</v>
+        <v>0.005728311690402629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03047503199703077</v>
+        <v>0.03055229509688869</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1049,19 +1049,19 @@
         <v>3135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8841</v>
+        <v>8675</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0102604151907673</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002931220213177327</v>
+        <v>0.002914351797067958</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02893528872612351</v>
+        <v>0.02839472045598028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1070,19 +1070,19 @@
         <v>10221</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4766</v>
+        <v>5028</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18160</v>
+        <v>18100</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.013133254754507</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006124198523934438</v>
+        <v>0.006460302767008641</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02333466864145918</v>
+        <v>0.02325777430111794</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>218664</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>199964</v>
+        <v>197840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>237304</v>
+        <v>235935</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5959225662086045</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.544960013462868</v>
+        <v>0.5391714847947532</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6467221830312826</v>
+        <v>0.6429903941600434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -1195,19 +1195,19 @@
         <v>210248</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>190556</v>
+        <v>191493</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226723</v>
+        <v>229380</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5653881718259045</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5124338484887745</v>
+        <v>0.5149527825989528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6096917986027892</v>
+        <v>0.6168366571242555</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>414</v>
@@ -1216,19 +1216,19 @@
         <v>428912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>403895</v>
+        <v>403536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>457896</v>
+        <v>456678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5805534761337036</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5466919226277903</v>
+        <v>0.5462057287523815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6197843834711914</v>
+        <v>0.6181351320258668</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>90032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74048</v>
+        <v>74641</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107298</v>
+        <v>108484</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2453621080066529</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2018021112370827</v>
+        <v>0.2034170763176953</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2924181236852144</v>
+        <v>0.2956491651808485</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -1266,19 +1266,19 @@
         <v>99258</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83659</v>
+        <v>81748</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117010</v>
+        <v>116797</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2669188141928166</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2249711256211739</v>
+        <v>0.2198315330952686</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3146578897943472</v>
+        <v>0.3140840614323314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>185</v>
@@ -1287,19 +1287,19 @@
         <v>189289</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>164660</v>
+        <v>165342</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>212420</v>
+        <v>211522</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2562123955525894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2228754315417251</v>
+        <v>0.2237983477813751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2875209482503584</v>
+        <v>0.2863046350892784</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>42223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30369</v>
+        <v>31135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54967</v>
+        <v>56087</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1150705728117257</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08276513991205241</v>
+        <v>0.08485176196116728</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1498010342052206</v>
+        <v>0.1528520484823846</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -1337,19 +1337,19 @@
         <v>45334</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33904</v>
+        <v>33536</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60975</v>
+        <v>60014</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1219104373543834</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0911732318255693</v>
+        <v>0.0901842216047546</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1639704665538018</v>
+        <v>0.1613865674830656</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -1358,19 +1358,19 @@
         <v>87558</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69035</v>
+        <v>71023</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>106308</v>
+        <v>106762</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1185133296235585</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09344228032274299</v>
+        <v>0.09613305510659337</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1438935037802805</v>
+        <v>0.1445075958264069</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>14276</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7739</v>
+        <v>8323</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23856</v>
+        <v>25108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03890638764832297</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02109002414526279</v>
+        <v>0.02268297809073924</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06501337467661747</v>
+        <v>0.06842704506193338</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1408,19 +1408,19 @@
         <v>15254</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9105</v>
+        <v>8671</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25433</v>
+        <v>25124</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04102094515710578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02448546093983</v>
+        <v>0.02331785896356642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06839349064899017</v>
+        <v>0.0675622410971482</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1429,19 +1429,19 @@
         <v>29530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19340</v>
+        <v>18765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42626</v>
+        <v>41993</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03997072265407813</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02617769023583105</v>
+        <v>0.02539996216514663</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05769682161265373</v>
+        <v>0.05684007903296254</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6074</v>
+        <v>5843</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00473836532469388</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01655395308032342</v>
+        <v>0.0159228758199167</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5677</v>
+        <v>6176</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004761631469789676</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01526763630891624</v>
+        <v>0.01660917146549174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1500,19 +1500,19 @@
         <v>3509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>890</v>
+        <v>964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8225</v>
+        <v>9209</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004750076036070412</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001204077352851788</v>
+        <v>0.001304333723509156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01113266355896588</v>
+        <v>0.01246433370571893</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>285153</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>261825</v>
+        <v>262286</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>306211</v>
+        <v>311035</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.525735141923237</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4827261703834327</v>
+        <v>0.4835761447085205</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5645594316408657</v>
+        <v>0.5734541470147687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -1625,19 +1625,19 @@
         <v>87434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74045</v>
+        <v>74895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99881</v>
+        <v>101079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5211152778431408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4413169398289638</v>
+        <v>0.4463856459483311</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5953013082416955</v>
+        <v>0.602439755834162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>364</v>
@@ -1646,19 +1646,19 @@
         <v>372587</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>346506</v>
+        <v>348260</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>399915</v>
+        <v>397781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5246436729585152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4879193755172518</v>
+        <v>0.490389314511504</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5631243594843702</v>
+        <v>0.5601204332020761</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>132456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>114705</v>
+        <v>113522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152267</v>
+        <v>153191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2442093835731411</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2114808924486384</v>
+        <v>0.2092996797825143</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2807339784097244</v>
+        <v>0.2824378238533444</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -1696,19 +1696,19 @@
         <v>44894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35094</v>
+        <v>33588</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56968</v>
+        <v>56689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.267571169031343</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2091644973682198</v>
+        <v>0.2001858087214494</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3395370749609349</v>
+        <v>0.3378727916842873</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>178</v>
@@ -1717,19 +1717,19 @@
         <v>177350</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>154766</v>
+        <v>155002</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200971</v>
+        <v>198812</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2497287372480627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.217928291510151</v>
+        <v>0.21825993336291</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2829893638593955</v>
+        <v>0.2799496190616448</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>94024</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>77113</v>
+        <v>75619</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111791</v>
+        <v>112837</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1733522314324898</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1421731780584733</v>
+        <v>0.1394192774532146</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2061078374834485</v>
+        <v>0.2080375161789844</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -1767,19 +1767,19 @@
         <v>25401</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16837</v>
+        <v>16998</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36310</v>
+        <v>36125</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1513910763213774</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1003488315070533</v>
+        <v>0.1013091614524806</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2164098990920012</v>
+        <v>0.2153067072877407</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>116</v>
@@ -1788,19 +1788,19 @@
         <v>119425</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>101074</v>
+        <v>100345</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>140281</v>
+        <v>140865</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1681637845826158</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1423237104065801</v>
+        <v>0.1412964732351653</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1975317393381668</v>
+        <v>0.1983530376524195</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>27431</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17690</v>
+        <v>18725</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38773</v>
+        <v>39708</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05057517394490733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03261476465430921</v>
+        <v>0.03452356728913277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07148591317556967</v>
+        <v>0.07320870721785985</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1838,19 +1838,19 @@
         <v>6610</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1990</v>
+        <v>2059</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15035</v>
+        <v>15173</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03939345091806452</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01186255391126019</v>
+        <v>0.01226926649776674</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08961319030547135</v>
+        <v>0.09043381154260383</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1859,19 +1859,19 @@
         <v>34041</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23907</v>
+        <v>24095</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48088</v>
+        <v>46908</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0479334287670578</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0336634969777001</v>
+        <v>0.03392877221823841</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06771320828299944</v>
+        <v>0.0660513184648852</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>3324</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10481</v>
+        <v>9995</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006128069126224677</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001539619401126313</v>
+        <v>0.001548504657707925</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01932416984370348</v>
+        <v>0.01842799073060462</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1909,19 +1909,19 @@
         <v>3444</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10215</v>
+        <v>9056</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02052902588607427</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006728137737589669</v>
+        <v>0.006669969266765553</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06088180824058646</v>
+        <v>0.05397187670192705</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1930,19 +1930,19 @@
         <v>6768</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2797</v>
+        <v>2757</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14440</v>
+        <v>14724</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009530376443748529</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003938868922381624</v>
+        <v>0.003882787952150679</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02033272950212536</v>
+        <v>0.02073329835926041</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>618193</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>581684</v>
+        <v>582884</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>651788</v>
+        <v>654345</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4992137600556418</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4697313668898573</v>
+        <v>0.4706998740021282</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5263423084600372</v>
+        <v>0.5284074502897365</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>328</v>
@@ -2055,19 +2055,19 @@
         <v>335628</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>307575</v>
+        <v>309234</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>361988</v>
+        <v>362705</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4698801256939262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4306051485104222</v>
+        <v>0.4329278336981391</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5067836065146801</v>
+        <v>0.5077880024836281</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>935</v>
@@ -2076,19 +2076,19 @@
         <v>953822</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>906212</v>
+        <v>908746</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>997380</v>
+        <v>1000512</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.488483260728485</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4641003374999763</v>
+        <v>0.4653982586293317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.510790821831531</v>
+        <v>0.512394842820587</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>350867</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>319770</v>
+        <v>318736</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>381754</v>
+        <v>381444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.283337780100815</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2582257857195033</v>
+        <v>0.2573905791941485</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3082805680023854</v>
+        <v>0.3080298283049892</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>184</v>
@@ -2126,19 +2126,19 @@
         <v>188431</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>165225</v>
+        <v>165766</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>211780</v>
+        <v>214521</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2638040170531004</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2313145602642596</v>
+        <v>0.2320720499919217</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2964918424981434</v>
+        <v>0.3003292924016828</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>529</v>
@@ -2147,19 +2147,19 @@
         <v>539298</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>501212</v>
+        <v>497435</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>583144</v>
+        <v>582143</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2761921591847137</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.256686726715783</v>
+        <v>0.25475237087207</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2986470246815218</v>
+        <v>0.2981340679426844</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>204209</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>177528</v>
+        <v>179587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>229681</v>
+        <v>230843</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1649059156434393</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1433602561100127</v>
+        <v>0.1450232824431623</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1854758560734945</v>
+        <v>0.1864141951203377</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>135</v>
@@ -2197,19 +2197,19 @@
         <v>140238</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>118053</v>
+        <v>120047</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>161615</v>
+        <v>163390</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1963327056733718</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1652749132338278</v>
+        <v>0.1680656090137914</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2262609996362089</v>
+        <v>0.2287460478195262</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>342</v>
@@ -2218,19 +2218,19 @@
         <v>344446</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>314721</v>
+        <v>312845</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>383031</v>
+        <v>381232</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1764021095726516</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1611787519332308</v>
+        <v>0.1602179230602956</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1961625061887915</v>
+        <v>0.1952414913724021</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>50736</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38293</v>
+        <v>38985</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64786</v>
+        <v>65407</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04097125024513673</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03092307353710507</v>
+        <v>0.03148159018022289</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05231731564251607</v>
+        <v>0.05281856470350377</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2268,19 +2268,19 @@
         <v>40481</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29017</v>
+        <v>29457</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53652</v>
+        <v>54389</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05667409069172849</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04062318077170079</v>
+        <v>0.04124002527070474</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07511355568042788</v>
+        <v>0.07614534989723644</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -2289,19 +2289,19 @@
         <v>91218</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73500</v>
+        <v>73052</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>112860</v>
+        <v>112262</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04671548625656387</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03764172805351812</v>
+        <v>0.03741211507736528</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05779920399976051</v>
+        <v>0.05749292048903153</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>14329</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8372</v>
+        <v>7859</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25879</v>
+        <v>25410</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01157129395496732</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00676076868821299</v>
+        <v>0.006346271751300539</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02089806566428945</v>
+        <v>0.0205192588102753</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2339,19 +2339,19 @@
         <v>9506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4839</v>
+        <v>4629</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17704</v>
+        <v>17416</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0133090608878731</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006774237976919523</v>
+        <v>0.006480493678874648</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02478580542244689</v>
+        <v>0.02438174173964137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -2360,19 +2360,19 @@
         <v>23836</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15498</v>
+        <v>14118</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>35689</v>
+        <v>35734</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01220698425758586</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007937133125997855</v>
+        <v>0.007230500531525621</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01827737366584677</v>
+        <v>0.0183007930851751</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>191563</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>175258</v>
+        <v>172134</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>212119</v>
+        <v>210035</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5464559114584535</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4999435935071664</v>
+        <v>0.4910329036651362</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6050961366341761</v>
+        <v>0.5991505666306096</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>252</v>
@@ -2485,19 +2485,19 @@
         <v>264685</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>239573</v>
+        <v>239715</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>292407</v>
+        <v>287521</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4653783999175796</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4212265756868974</v>
+        <v>0.4214752758796704</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5141208148603383</v>
+        <v>0.5055290794480778</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>438</v>
@@ -2506,19 +2506,19 @@
         <v>456248</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>426354</v>
+        <v>425856</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>489140</v>
+        <v>488987</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4962953248462493</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4637775889055425</v>
+        <v>0.4632359713836003</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5320748798818028</v>
+        <v>0.5319086316498568</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>79058</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>64015</v>
+        <v>63868</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>95491</v>
+        <v>96094</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2255226398380212</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1826093840247544</v>
+        <v>0.1821913232868781</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2724007772633626</v>
+        <v>0.2741207480700966</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>113</v>
@@ -2556,19 +2556,19 @@
         <v>117322</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>99336</v>
+        <v>97621</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>140517</v>
+        <v>136735</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2062790039922642</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1746552221545025</v>
+        <v>0.1716409924105373</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2470624617310052</v>
+        <v>0.2404120331798064</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>189</v>
@@ -2577,19 +2577,19 @@
         <v>196380</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>172312</v>
+        <v>171490</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>221243</v>
+        <v>224458</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2136170935992447</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1874368210670715</v>
+        <v>0.186542368295828</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2406626742590824</v>
+        <v>0.2441601794956257</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>58400</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45676</v>
+        <v>45540</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>73489</v>
+        <v>73443</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1665919079453928</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1302948720543015</v>
+        <v>0.129909119387756</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2096350999246845</v>
+        <v>0.2095057285235591</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>122</v>
@@ -2627,19 +2627,19 @@
         <v>129904</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>110872</v>
+        <v>112236</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>150536</v>
+        <v>152241</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2284017557799412</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1949382981384338</v>
+        <v>0.197336826516819</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2646780781658262</v>
+        <v>0.2676755743423106</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>180</v>
@@ -2648,19 +2648,19 @@
         <v>188304</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>165129</v>
+        <v>163908</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>215467</v>
+        <v>213599</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2048320828948793</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1796228481889443</v>
+        <v>0.1782947218918772</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2343802615128155</v>
+        <v>0.2323475860769042</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>18994</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11028</v>
+        <v>11443</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29217</v>
+        <v>30485</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05418142492446958</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03145976149983638</v>
+        <v>0.03264210100136012</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08334616149834817</v>
+        <v>0.08696202160563066</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>45</v>
@@ -2698,19 +2698,19 @@
         <v>48612</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36479</v>
+        <v>36243</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>64812</v>
+        <v>64454</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0854717472549163</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0641383633273932</v>
+        <v>0.06372307302869085</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1139542076509379</v>
+        <v>0.1133245140457867</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>63</v>
@@ -2719,19 +2719,19 @@
         <v>67606</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>52110</v>
+        <v>53078</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>84759</v>
+        <v>86695</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07353994855884265</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05668433891614552</v>
+        <v>0.05773658388022911</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09219836382687138</v>
+        <v>0.0943048021156925</v>
       </c>
     </row>
     <row r="32">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9050</v>
+        <v>8588</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007248115833662848</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02581495272889332</v>
+        <v>0.02449777375569733</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -2769,19 +2769,19 @@
         <v>8229</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3340</v>
+        <v>3483</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16919</v>
+        <v>16083</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01446909305529871</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005871694422687918</v>
+        <v>0.006124781385294572</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02974834195772967</v>
+        <v>0.02827807260457484</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -2790,19 +2790,19 @@
         <v>10770</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5203</v>
+        <v>5298</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>20530</v>
+        <v>20005</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01171555010078411</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005660155430084237</v>
+        <v>0.005763162988093084</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02233237640095082</v>
+        <v>0.02176063239463855</v>
       </c>
     </row>
     <row r="33">
@@ -2894,19 +2894,19 @@
         <v>224707</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>209452</v>
+        <v>209314</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>238290</v>
+        <v>239203</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.753542975471476</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7023843491848194</v>
+        <v>0.7019240625519504</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7990932604935629</v>
+        <v>0.8021543621517984</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>621</v>
@@ -2915,19 +2915,19 @@
         <v>614688</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>579295</v>
+        <v>578864</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>649711</v>
+        <v>648351</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4922386762742697</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4638965749275714</v>
+        <v>0.4635510480033967</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5202850805338429</v>
+        <v>0.5191961304405448</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>853</v>
@@ -2936,19 +2936,19 @@
         <v>839395</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>797097</v>
+        <v>799635</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>880387</v>
+        <v>877803</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5426091231229766</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5152669411779498</v>
+        <v>0.5169072133147522</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5691076076364763</v>
+        <v>0.5674374222655741</v>
       </c>
     </row>
     <row r="35">
@@ -2965,19 +2965,19 @@
         <v>45565</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>34164</v>
+        <v>33644</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57868</v>
+        <v>58656</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1527999822375329</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1145658414205395</v>
+        <v>0.1128229609243774</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1940575410255237</v>
+        <v>0.196700280000647</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>263</v>
@@ -2986,19 +2986,19 @@
         <v>266776</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>238511</v>
+        <v>239944</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>298098</v>
+        <v>295031</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2136326089323988</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1909981678642226</v>
+        <v>0.1921456768373734</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2387153031121019</v>
+        <v>0.2362588048989662</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>309</v>
@@ -3007,19 +3007,19 @@
         <v>312341</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>282749</v>
+        <v>280781</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>345407</v>
+        <v>346309</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2019061788697673</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1827774144578981</v>
+        <v>0.1815049675691723</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2232811929867843</v>
+        <v>0.2238639021625472</v>
       </c>
     </row>
     <row r="36">
@@ -3036,19 +3036,19 @@
         <v>20499</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13216</v>
+        <v>13918</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>30082</v>
+        <v>30662</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06874198205313094</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04431948677548921</v>
+        <v>0.04667167580241696</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1008789912446045</v>
+        <v>0.10282412962977</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>224</v>
@@ -3057,19 +3057,19 @@
         <v>230127</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>204153</v>
+        <v>203960</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>259115</v>
+        <v>258160</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1842843678333917</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.163484928741568</v>
+        <v>0.1633298734280328</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2074981877813181</v>
+        <v>0.2067330383800734</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>246</v>
@@ -3078,19 +3078,19 @@
         <v>250626</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>222280</v>
+        <v>225511</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>278606</v>
+        <v>281566</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1620117851793837</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1436883891036909</v>
+        <v>0.1457767516005325</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1800991610776302</v>
+        <v>0.1820127613177285</v>
       </c>
     </row>
     <row r="37">
@@ -3107,19 +3107,19 @@
         <v>7430</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2835</v>
+        <v>2924</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15233</v>
+        <v>15566</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02491506023786014</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.009506186601633165</v>
+        <v>0.009806547815054325</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05108227295836729</v>
+        <v>0.05220083883609226</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>107</v>
@@ -3128,19 +3128,19 @@
         <v>112624</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>92295</v>
+        <v>94265</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>132536</v>
+        <v>136631</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09018840884814065</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07390915543907511</v>
+        <v>0.07548726663171224</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1061337498404982</v>
+        <v>0.1094137269982305</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>113</v>
@@ -3149,19 +3149,19 @@
         <v>120053</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>100103</v>
+        <v>99783</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>141082</v>
+        <v>143711</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0776059609247335</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06470979339245732</v>
+        <v>0.06450269175948417</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09119926183674859</v>
+        <v>0.09289909638067803</v>
       </c>
     </row>
     <row r="38">
@@ -3191,19 +3191,19 @@
         <v>24546</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>16405</v>
+        <v>16027</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>35933</v>
+        <v>36362</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01965593811179913</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01313736550499477</v>
+        <v>0.01283469413484987</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02877455040968912</v>
+        <v>0.02911829550848286</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>23</v>
@@ -3212,19 +3212,19 @@
         <v>24546</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15965</v>
+        <v>15488</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>36275</v>
+        <v>35738</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01586695190313887</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01032017375884083</v>
+        <v>0.01001174252677353</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02344912364527854</v>
+        <v>0.02310182495068056</v>
       </c>
     </row>
     <row r="39">
@@ -3316,19 +3316,19 @@
         <v>1809856</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1750364</v>
+        <v>1756989</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1865892</v>
+        <v>1867912</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5536240723793674</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5354259205001998</v>
+        <v>0.5374523322296346</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.570765164587216</v>
+        <v>0.571383171117081</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1656</v>
@@ -3337,19 +3337,19 @@
         <v>1676086</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1609833</v>
+        <v>1617025</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1731213</v>
+        <v>1732522</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.496327802803803</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.47670881267131</v>
+        <v>0.4788386812312457</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5126522416386701</v>
+        <v>0.5130400390146923</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3428</v>
@@ -3358,19 +3358,19 @@
         <v>3485941</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3401919</v>
+        <v>3403762</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3567668</v>
+        <v>3569433</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5245109706692532</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5118685936291282</v>
+        <v>0.5121458719633452</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5368079283954292</v>
+        <v>0.5370734446159611</v>
       </c>
     </row>
     <row r="41">
@@ -3387,19 +3387,19 @@
         <v>820101</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>768102</v>
+        <v>770807</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>870100</v>
+        <v>867795</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2508639211300594</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2349578463290654</v>
+        <v>0.2357851985419741</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.266158392524506</v>
+        <v>0.2654531790342976</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>787</v>
@@ -3408,19 +3408,19 @@
         <v>804829</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>758211</v>
+        <v>753208</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>858192</v>
+        <v>851231</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2383283948605086</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2245238872007011</v>
+        <v>0.2230422248259093</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2541306916335703</v>
+        <v>0.2520693035909528</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1592</v>
@@ -3429,19 +3429,19 @@
         <v>1624929</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1554639</v>
+        <v>1558629</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1696621</v>
+        <v>1696539</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2444944305161211</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2339181958720348</v>
+        <v>0.2345185074718038</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.255281447876887</v>
+        <v>0.2552691364899056</v>
       </c>
     </row>
     <row r="42">
@@ -3458,19 +3458,19 @@
         <v>475260</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>434973</v>
+        <v>432664</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>515211</v>
+        <v>517879</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.145379063256405</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1330556565681514</v>
+        <v>0.132349288128462</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1575998953769711</v>
+        <v>0.1584162191343029</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>583</v>
@@ -3479,19 +3479,19 @@
         <v>607532</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>561225</v>
+        <v>567283</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>654355</v>
+        <v>654056</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1799043982368103</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1661918536774084</v>
+        <v>0.167985605144897</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1937695429701624</v>
+        <v>0.1936810235289938</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1056</v>
@@ -3500,19 +3500,19 @@
         <v>1082792</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1022479</v>
+        <v>1018925</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1141905</v>
+        <v>1142786</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.162921908476628</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1538469497125317</v>
+        <v>0.1533122027437801</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1718162846564482</v>
+        <v>0.171948838841477</v>
       </c>
     </row>
     <row r="43">
@@ -3529,19 +3529,19 @@
         <v>134872</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>112947</v>
+        <v>111047</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>162258</v>
+        <v>160429</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04125645286558692</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03454994733198971</v>
+        <v>0.03396847983919484</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0496336325957082</v>
+        <v>0.04907442152896162</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>222</v>
@@ -3550,19 +3550,19 @@
         <v>237895</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>210501</v>
+        <v>208312</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>271180</v>
+        <v>269071</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07044630979844425</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.06233410688540911</v>
+        <v>0.06168606502257332</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08030274096576334</v>
+        <v>0.0796781242586205</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>351</v>
@@ -3571,19 +3571,19 @@
         <v>372767</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>337226</v>
+        <v>337598</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>412863</v>
+        <v>414989</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05608826094114056</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05074064578867007</v>
+        <v>0.05079660052945546</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06212128550430798</v>
+        <v>0.06244118258641858</v>
       </c>
     </row>
     <row r="44">
@@ -3600,19 +3600,19 @@
         <v>29018</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>19683</v>
+        <v>18494</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>42883</v>
+        <v>41873</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.008876490368581322</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.006020933782928867</v>
+        <v>0.005657068064374186</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01311764734809749</v>
+        <v>0.01280869803026742</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>47</v>
@@ -3621,19 +3621,19 @@
         <v>50631</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>37269</v>
+        <v>39101</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>67954</v>
+        <v>67420</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01499309430043388</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01103625958869373</v>
+        <v>0.01157881706459582</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02012263569247602</v>
+        <v>0.01996453876939705</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>74</v>
@@ -3642,19 +3642,19 @@
         <v>79649</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>61375</v>
+        <v>63560</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>98713</v>
+        <v>99291</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01198442939685711</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.009234729961612701</v>
+        <v>0.009563566397191735</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01485276628082029</v>
+        <v>0.01493975736403653</v>
       </c>
     </row>
     <row r="45">
@@ -3988,19 +3988,19 @@
         <v>277698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>256655</v>
+        <v>255923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299362</v>
+        <v>298186</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6366836327044637</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5884373352505523</v>
+        <v>0.5867600562730828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6863529925165597</v>
+        <v>0.6836562817242582</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>164</v>
@@ -4009,19 +4009,19 @@
         <v>180120</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>161823</v>
+        <v>161261</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197721</v>
+        <v>197870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5787237940867881</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.519935980717913</v>
+        <v>0.5181301333281606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.635274910210344</v>
+        <v>0.6357547546276617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>418</v>
@@ -4030,19 +4030,19 @@
         <v>457818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>429448</v>
+        <v>427255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>484685</v>
+        <v>486894</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6125476061853201</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5745892056597441</v>
+        <v>0.571655425342707</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6484946672781235</v>
+        <v>0.6514499313963199</v>
       </c>
     </row>
     <row r="5">
@@ -4059,19 +4059,19 @@
         <v>103635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84463</v>
+        <v>85882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123116</v>
+        <v>122374</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2376051846599579</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1936490094525727</v>
+        <v>0.1969034490554149</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2822699814390354</v>
+        <v>0.2805701892134616</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -4080,19 +4080,19 @@
         <v>94509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77244</v>
+        <v>76654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111200</v>
+        <v>112061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3036563695271813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2481847445624623</v>
+        <v>0.2462871589688228</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3572836386050977</v>
+        <v>0.3600503347745542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>181</v>
@@ -4101,19 +4101,19 @@
         <v>198144</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>173830</v>
+        <v>172742</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>222189</v>
+        <v>223333</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2651106641022347</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2325800081748162</v>
+        <v>0.2311241490524699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2972824297438504</v>
+        <v>0.2988126114337993</v>
       </c>
     </row>
     <row r="6">
@@ -4130,19 +4130,19 @@
         <v>35242</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24477</v>
+        <v>25100</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48681</v>
+        <v>48360</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08080044058800988</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05611850028317213</v>
+        <v>0.05754679728803279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.111612846137374</v>
+        <v>0.1108760448184506</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -4151,19 +4151,19 @@
         <v>20849</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12878</v>
+        <v>12495</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31760</v>
+        <v>32047</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06698710452640295</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04137662656535492</v>
+        <v>0.04014598518703771</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1020454311902335</v>
+        <v>0.1029665953632554</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -4172,19 +4172,19 @@
         <v>56091</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>42701</v>
+        <v>42382</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>72946</v>
+        <v>72554</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07504819811369919</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05713250690010926</v>
+        <v>0.05670655267067409</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0976002079770792</v>
+        <v>0.09707558361293679</v>
       </c>
     </row>
     <row r="7">
@@ -4201,19 +4201,19 @@
         <v>14758</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8685</v>
+        <v>8531</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24677</v>
+        <v>25294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03383645045719054</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01991193620901259</v>
+        <v>0.01956016739605682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05657839126175881</v>
+        <v>0.05799315880372298</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4222,19 +4222,19 @@
         <v>12775</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7091</v>
+        <v>6908</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23050</v>
+        <v>20943</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04104641223340214</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02278262729220479</v>
+        <v>0.02219482515652198</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07405793212914741</v>
+        <v>0.06728921493077852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4243,19 +4243,19 @@
         <v>27533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18180</v>
+        <v>18045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39590</v>
+        <v>40806</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03683887131934224</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0243238566003396</v>
+        <v>0.02414376333925026</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05297069886748369</v>
+        <v>0.05459704179486139</v>
       </c>
     </row>
     <row r="8">
@@ -4272,19 +4272,19 @@
         <v>4830</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14353</v>
+        <v>13178</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01107429159037803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002325414218491916</v>
+        <v>0.002326434936006289</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03290830311614148</v>
+        <v>0.03021281446870819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11007</v>
+        <v>11414</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00958631962622543</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03536574528356851</v>
+        <v>0.03667306454128297</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4314,19 +4314,19 @@
         <v>7814</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2906</v>
+        <v>2943</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17781</v>
+        <v>17619</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01045466027940373</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003888477809010396</v>
+        <v>0.003937270031652169</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02379000468051526</v>
+        <v>0.02357406582616493</v>
       </c>
     </row>
     <row r="9">
@@ -4418,19 +4418,19 @@
         <v>238383</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214480</v>
+        <v>215600</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>257565</v>
+        <v>259588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5709688299543714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5137159487366054</v>
+        <v>0.5163995231386761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6169111429540244</v>
+        <v>0.6217568148757243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -4439,19 +4439,19 @@
         <v>192685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>173637</v>
+        <v>172721</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211401</v>
+        <v>211460</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5718132830559874</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5152873288851351</v>
+        <v>0.5125685414802109</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6273552888132269</v>
+        <v>0.6275298178836257</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>389</v>
@@ -4460,19 +4460,19 @@
         <v>431069</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>400599</v>
+        <v>401930</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>460445</v>
+        <v>460587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5713459867140813</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5309614356412525</v>
+        <v>0.5327256357439981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.61028270233813</v>
+        <v>0.6104697711803972</v>
       </c>
     </row>
     <row r="11">
@@ -4489,19 +4489,19 @@
         <v>125384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>107268</v>
+        <v>105004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>146807</v>
+        <v>146009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3003161254759799</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2569244867213375</v>
+        <v>0.2515015977716508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3516267088793329</v>
+        <v>0.3497156479122699</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>78</v>
@@ -4510,19 +4510,19 @@
         <v>85188</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69449</v>
+        <v>68987</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103225</v>
+        <v>102546</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2528047300608869</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2060975329480817</v>
+        <v>0.2047273607317197</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3063298762666031</v>
+        <v>0.3043150701595296</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>192</v>
@@ -4531,19 +4531,19 @@
         <v>210572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>185892</v>
+        <v>185645</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>234478</v>
+        <v>236619</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2790961857187989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2463848429499909</v>
+        <v>0.2460573097215092</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3107815249854475</v>
+        <v>0.3136185958780656</v>
       </c>
     </row>
     <row r="12">
@@ -4560,19 +4560,19 @@
         <v>41319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29147</v>
+        <v>29222</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58441</v>
+        <v>57871</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09896599860932764</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06981261294875464</v>
+        <v>0.0699919532166651</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1399750957165624</v>
+        <v>0.1386099088128599</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -4581,19 +4581,19 @@
         <v>29006</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20022</v>
+        <v>20466</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40799</v>
+        <v>40304</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0860775772265774</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05941870937802231</v>
+        <v>0.0607353464978621</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1210766462021741</v>
+        <v>0.1196050062733624</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -4602,19 +4602,19 @@
         <v>70325</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>54815</v>
+        <v>54823</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>89603</v>
+        <v>89792</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09320966325193163</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07265249264270296</v>
+        <v>0.07266319889307526</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1187613275827689</v>
+        <v>0.1190120219796042</v>
       </c>
     </row>
     <row r="13">
@@ -4631,19 +4631,19 @@
         <v>4887</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1810</v>
+        <v>1735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11187</v>
+        <v>9848</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0117058723457862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004335045100477035</v>
+        <v>0.004154469884188151</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02679511528466694</v>
+        <v>0.02358708409541718</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -4652,19 +4652,19 @@
         <v>20956</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12480</v>
+        <v>13271</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33090</v>
+        <v>32349</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06218913719299674</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03703427166041937</v>
+        <v>0.0393826653744937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09819710329597095</v>
+        <v>0.09599976035370504</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4673,19 +4673,19 @@
         <v>25843</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16280</v>
+        <v>17127</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37726</v>
+        <v>38742</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03425313347007877</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02157802395474103</v>
+        <v>0.02270065847577327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05000288186181745</v>
+        <v>0.05134997707662329</v>
       </c>
     </row>
     <row r="14">
@@ -4702,19 +4702,19 @@
         <v>7533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2111</v>
+        <v>2422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17203</v>
+        <v>17320</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01804317361453499</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005056215482195799</v>
+        <v>0.005800282808480531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04120377477425519</v>
+        <v>0.04148436379138401</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -4723,19 +4723,19 @@
         <v>9137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4236</v>
+        <v>4173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18377</v>
+        <v>18947</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0271152724635515</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0125695080799976</v>
+        <v>0.01238368047863424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05453540748663833</v>
+        <v>0.05622664603040574</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -4744,19 +4744,19 @@
         <v>16670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8980</v>
+        <v>9335</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28442</v>
+        <v>29863</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02209503084510933</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01190214991220288</v>
+        <v>0.0123726592106575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03769741389161526</v>
+        <v>0.03958140630681986</v>
       </c>
     </row>
     <row r="15">
@@ -4848,19 +4848,19 @@
         <v>370057</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>341237</v>
+        <v>345071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>394294</v>
+        <v>395259</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5879376633102231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5421488030453573</v>
+        <v>0.5482402476602142</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6264454770153141</v>
+        <v>0.6279790873049587</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -4869,19 +4869,19 @@
         <v>152335</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>135608</v>
+        <v>137102</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167320</v>
+        <v>169447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5877269668458694</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5231918958967136</v>
+        <v>0.5289565391357258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6455433036812841</v>
+        <v>0.6537502895822139</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>493</v>
@@ -4890,19 +4890,19 @@
         <v>522392</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>492893</v>
+        <v>492936</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>552589</v>
+        <v>556928</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5878762065015148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5546803684155884</v>
+        <v>0.5547280411717529</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6218595819220207</v>
+        <v>0.6267420013041047</v>
       </c>
     </row>
     <row r="17">
@@ -4919,19 +4919,19 @@
         <v>159697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137852</v>
+        <v>138090</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185028</v>
+        <v>182036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2537228335701895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2190162262056167</v>
+        <v>0.2193944782588634</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.293968214763229</v>
+        <v>0.2892140192904779</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -4940,19 +4940,19 @@
         <v>65487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52336</v>
+        <v>51591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81924</v>
+        <v>79607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2526574607836945</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2019178172926883</v>
+        <v>0.1990455364268367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3160741354722632</v>
+        <v>0.3071324409258316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>211</v>
@@ -4961,19 +4961,19 @@
         <v>225184</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>198272</v>
+        <v>200304</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>250243</v>
+        <v>252695</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2534120812671382</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2231266043117278</v>
+        <v>0.2254129417359394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2816126656851588</v>
+        <v>0.2843712721554697</v>
       </c>
     </row>
     <row r="18">
@@ -4990,19 +4990,19 @@
         <v>75786</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60180</v>
+        <v>59749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>95171</v>
+        <v>97729</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.120407801326391</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09561225528904084</v>
+        <v>0.09492812783667237</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1512052829924952</v>
+        <v>0.1552701792302836</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -5011,19 +5011,19 @@
         <v>31040</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21439</v>
+        <v>21773</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42335</v>
+        <v>42502</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1197556836389269</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08271585199047975</v>
+        <v>0.0840023462779807</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1633338443633256</v>
+        <v>0.1639765118983333</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -5032,19 +5032,19 @@
         <v>106826</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>88595</v>
+        <v>87643</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>127419</v>
+        <v>128982</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1202175889652261</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09970074064177058</v>
+        <v>0.09862946445058539</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1433912433161383</v>
+        <v>0.1451504171944044</v>
       </c>
     </row>
     <row r="19">
@@ -5061,19 +5061,19 @@
         <v>21519</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13115</v>
+        <v>13277</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33453</v>
+        <v>34226</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03418935491346173</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02083731006036794</v>
+        <v>0.02109432297730941</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0531490016261339</v>
+        <v>0.05437797184018268</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -5082,19 +5082,19 @@
         <v>7266</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3012</v>
+        <v>3118</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14090</v>
+        <v>13605</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02803377228906564</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01161913391584181</v>
+        <v>0.01202897521975506</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05436270742863004</v>
+        <v>0.05249146036007067</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -5103,19 +5103,19 @@
         <v>28785</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19116</v>
+        <v>19235</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40952</v>
+        <v>41585</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03239386933188688</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02151211819849304</v>
+        <v>0.02164639169515222</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0460860565440255</v>
+        <v>0.0467983809779313</v>
       </c>
     </row>
     <row r="20">
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7301</v>
+        <v>7568</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003742346879734605</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0115997877224574</v>
+        <v>0.01202346008553107</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -5153,19 +5153,19 @@
         <v>3065</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8041</v>
+        <v>8225</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01182611644244356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003679298780859718</v>
+        <v>0.003668909869594562</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03102471355939426</v>
+        <v>0.03173317411031754</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -5174,19 +5174,19 @@
         <v>5421</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2076</v>
+        <v>1972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12583</v>
+        <v>12308</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006100253934234024</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0023359937965591</v>
+        <v>0.002218958138747902</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01415988593265548</v>
+        <v>0.01385105725219144</v>
       </c>
     </row>
     <row r="21">
@@ -5278,19 +5278,19 @@
         <v>616349</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>581289</v>
+        <v>583274</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>652803</v>
+        <v>650962</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5345231753340665</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.504117456377424</v>
+        <v>0.5058392910328562</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5661376423796149</v>
+        <v>0.5645409677653159</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>369</v>
@@ -5299,19 +5299,19 @@
         <v>395025</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>366505</v>
+        <v>367048</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>425083</v>
+        <v>423230</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5152560414610652</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4780566190576809</v>
+        <v>0.4787643370441039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5544625708201329</v>
+        <v>0.55204583264949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>947</v>
@@ -5320,19 +5320,19 @@
         <v>1011374</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>967188</v>
+        <v>964375</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1056651</v>
+        <v>1056312</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5268287502297756</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5038119881099914</v>
+        <v>0.5023469054520847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5504135701975004</v>
+        <v>0.5502371509428302</v>
       </c>
     </row>
     <row r="23">
@@ -5349,19 +5349,19 @@
         <v>302718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>272550</v>
+        <v>273381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>334002</v>
+        <v>335120</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2625293610915953</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2363662244663656</v>
+        <v>0.2370875144371815</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2896602972718507</v>
+        <v>0.2906300191545044</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>197</v>
@@ -5370,19 +5370,19 @@
         <v>208690</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>184020</v>
+        <v>185240</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>236429</v>
+        <v>235332</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2722078790152185</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2400287519942968</v>
+        <v>0.2416199426455305</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.308389451858642</v>
+        <v>0.3069585429170795</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>480</v>
@@ -5391,19 +5391,19 @@
         <v>511408</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>470583</v>
+        <v>472318</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>551180</v>
+        <v>552456</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.266394525042535</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2451286894275977</v>
+        <v>0.2460321395391099</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2871115949894416</v>
+        <v>0.2877766798522907</v>
       </c>
     </row>
     <row r="24">
@@ -5420,19 +5420,19 @@
         <v>157976</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>135318</v>
+        <v>135416</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>180969</v>
+        <v>183341</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1370035265573671</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1173532504436463</v>
+        <v>0.1174385746979106</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1569437716002239</v>
+        <v>0.1590007471383207</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>96</v>
@@ -5441,19 +5441,19 @@
         <v>106428</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>87496</v>
+        <v>88485</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>127565</v>
+        <v>127592</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1388204195651009</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1141269276014662</v>
+        <v>0.1154169974161738</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1663917498628559</v>
+        <v>0.1664260270637704</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>241</v>
@@ -5462,19 +5462,19 @@
         <v>264404</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>237558</v>
+        <v>233759</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>298058</v>
+        <v>297099</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1377291117566326</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1237450948841554</v>
+        <v>0.1217661970711075</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1552595723472229</v>
+        <v>0.1547597774134598</v>
       </c>
     </row>
     <row r="25">
@@ -5491,19 +5491,19 @@
         <v>63395</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>50316</v>
+        <v>49479</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81780</v>
+        <v>81389</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05497841075655308</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0436358961431766</v>
+        <v>0.04291055095762591</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07092321040248911</v>
+        <v>0.07058382870850456</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -5512,19 +5512,19 @@
         <v>37848</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26322</v>
+        <v>26651</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53241</v>
+        <v>51521</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04936790794365994</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03433347454375085</v>
+        <v>0.03476205615751972</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06944630229166231</v>
+        <v>0.06720229452361537</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>92</v>
@@ -5533,19 +5533,19 @@
         <v>101243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83331</v>
+        <v>81150</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>123107</v>
+        <v>123700</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05273782873871015</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04340724591012076</v>
+        <v>0.04227145341411771</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06412683353161268</v>
+        <v>0.06443569192254071</v>
       </c>
     </row>
     <row r="26">
@@ -5562,19 +5562,19 @@
         <v>12644</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7288</v>
+        <v>7347</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22654</v>
+        <v>22188</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01096552626041814</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00632010343942319</v>
+        <v>0.006371697621424499</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01964669098973391</v>
+        <v>0.01924260361930425</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -5583,19 +5583,19 @@
         <v>18666</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10619</v>
+        <v>11069</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29965</v>
+        <v>29950</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02434775201495552</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01385058198044336</v>
+        <v>0.01443745767157912</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03908575078714171</v>
+        <v>0.03906513284476362</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -5604,19 +5604,19 @@
         <v>31311</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20895</v>
+        <v>21828</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>44307</v>
+        <v>44886</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01630978423234656</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01088411274074724</v>
+        <v>0.01137022222826336</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02307942800115734</v>
+        <v>0.02338106956162463</v>
       </c>
     </row>
     <row r="27">
@@ -5708,19 +5708,19 @@
         <v>241958</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>218662</v>
+        <v>218688</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>263918</v>
+        <v>264242</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4767467521326347</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4308448976621928</v>
+        <v>0.4308966454081194</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5200154059188037</v>
+        <v>0.520653510115051</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>321</v>
@@ -5729,19 +5729,19 @@
         <v>347303</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>319754</v>
+        <v>320622</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>375413</v>
+        <v>378040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4567237841767887</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4204951733697342</v>
+        <v>0.4216373715306728</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4936899677209438</v>
+        <v>0.4971448990634205</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>556</v>
@@ -5750,19 +5750,19 @@
         <v>589261</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>550798</v>
+        <v>554331</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>623398</v>
+        <v>627834</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4647383816064957</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4344037015315563</v>
+        <v>0.4371900308715861</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4916615552439096</v>
+        <v>0.4951605529753629</v>
       </c>
     </row>
     <row r="29">
@@ -5779,19 +5779,19 @@
         <v>160199</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>138773</v>
+        <v>139499</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>181054</v>
+        <v>182789</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.315650397440163</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2734338894427596</v>
+        <v>0.274864967832055</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3567439007036157</v>
+        <v>0.3601622593732695</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>201</v>
@@ -5800,19 +5800,19 @@
         <v>217111</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>190864</v>
+        <v>190965</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>242500</v>
+        <v>241819</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.285514089743185</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2509971617871738</v>
+        <v>0.2511307383240192</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3189019852755626</v>
+        <v>0.3180061973176013</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>351</v>
@@ -5821,19 +5821,19 @@
         <v>377310</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>343173</v>
+        <v>346811</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>410628</v>
+        <v>414518</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2975767557146671</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2706534164466471</v>
+        <v>0.2735227450899187</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3238537962470956</v>
+        <v>0.3269218928897475</v>
       </c>
     </row>
     <row r="30">
@@ -5850,19 +5850,19 @@
         <v>78335</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>62345</v>
+        <v>63095</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>96016</v>
+        <v>95642</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.154348522670221</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1228421295924465</v>
+        <v>0.1243200112522026</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1891861869938446</v>
+        <v>0.1884500587979064</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>117</v>
@@ -5871,19 +5871,19 @@
         <v>127513</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>105263</v>
+        <v>107194</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>149661</v>
+        <v>151312</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1676867713796253</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.138427699212512</v>
+        <v>0.1409665620587356</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.196812840764361</v>
+        <v>0.1989844221673425</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>190</v>
@@ -5892,19 +5892,19 @@
         <v>205848</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>178736</v>
+        <v>180553</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>233139</v>
+        <v>233452</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1623478678734658</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1409656037118418</v>
+        <v>0.1423986517745299</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1838723815437323</v>
+        <v>0.1841193199137152</v>
       </c>
     </row>
     <row r="31">
@@ -5921,19 +5921,19 @@
         <v>17972</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10505</v>
+        <v>10671</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27527</v>
+        <v>27259</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03541199174506131</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02069792230706062</v>
+        <v>0.02102484794656854</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05423851864177955</v>
+        <v>0.05371008492256686</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>46</v>
@@ -5942,19 +5942,19 @@
         <v>50721</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>38083</v>
+        <v>38143</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>68679</v>
+        <v>67358</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06670175127762884</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05008146427101373</v>
+        <v>0.05015989951764189</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09031727220738248</v>
+        <v>0.08858001643535043</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>63</v>
@@ -5963,19 +5963,19 @@
         <v>68694</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>54304</v>
+        <v>54214</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>87531</v>
+        <v>88266</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05417739290683854</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04282843497806911</v>
+        <v>0.04275767737064223</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06903427242193222</v>
+        <v>0.06961337591399203</v>
       </c>
     </row>
     <row r="32">
@@ -5992,19 +5992,19 @@
         <v>9055</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4201</v>
+        <v>4163</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16661</v>
+        <v>17060</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01784233601192</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008277210952699626</v>
+        <v>0.008202669538005702</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03282749100128182</v>
+        <v>0.03361476847780244</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -6013,19 +6013,19 @@
         <v>17774</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11052</v>
+        <v>10664</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29252</v>
+        <v>27979</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02337360342277215</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01453341645467899</v>
+        <v>0.01402441437893887</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03846868307364142</v>
+        <v>0.03679438795098124</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -6034,19 +6034,19 @@
         <v>26829</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>17568</v>
+        <v>17926</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>37858</v>
+        <v>37874</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02115960189853285</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01385576364467231</v>
+        <v>0.01413789559855437</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02985808115583152</v>
+        <v>0.02987068863227328</v>
       </c>
     </row>
     <row r="33">
@@ -6138,19 +6138,19 @@
         <v>185069</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>170515</v>
+        <v>168991</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>201072</v>
+        <v>199163</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6934478046195233</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6389165680182628</v>
+        <v>0.6332065565232035</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7534111870777177</v>
+        <v>0.7462576931706436</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>542</v>
@@ -6159,19 +6159,19 @@
         <v>576837</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>546680</v>
+        <v>544906</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>608857</v>
+        <v>610386</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5219019879114291</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4946162879260511</v>
+        <v>0.4930118198056875</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5508722612092802</v>
+        <v>0.5522558429101724</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>727</v>
@@ -6180,19 +6180,19 @@
         <v>761906</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>726109</v>
+        <v>723827</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>800130</v>
+        <v>797978</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5552676875325377</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5291788477967124</v>
+        <v>0.5275158290217932</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5831249472902498</v>
+        <v>0.5815565042703165</v>
       </c>
     </row>
     <row r="35">
@@ -6209,19 +6209,19 @@
         <v>53875</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>41258</v>
+        <v>41344</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>67804</v>
+        <v>68292</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2018669476883094</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1545926893549875</v>
+        <v>0.1549152940138961</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2540595723578133</v>
+        <v>0.2558892877910403</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>287</v>
@@ -6230,19 +6230,19 @@
         <v>299682</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>273142</v>
+        <v>270699</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>332300</v>
+        <v>328605</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2711418372027666</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2471293948796199</v>
+        <v>0.2449185733437867</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3006533056924349</v>
+        <v>0.2973101074087549</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>341</v>
@@ -6251,19 +6251,19 @@
         <v>353557</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>322553</v>
+        <v>320769</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>387311</v>
+        <v>387689</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2576678557371737</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2350724270950643</v>
+        <v>0.2337725078671047</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2822673454386064</v>
+        <v>0.2825432641076169</v>
       </c>
     </row>
     <row r="36">
@@ -6280,19 +6280,19 @@
         <v>20968</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12980</v>
+        <v>12826</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32148</v>
+        <v>32522</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07856815169681804</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04863759836535503</v>
+        <v>0.04805910521927748</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1204559011471369</v>
+        <v>0.121860504040134</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>151</v>
@@ -6301,19 +6301,19 @@
         <v>163953</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>140292</v>
+        <v>139713</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>191142</v>
+        <v>190678</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1483387639412548</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1269309741064692</v>
+        <v>0.1264075538826548</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1729386168900102</v>
+        <v>0.1725189122151028</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>170</v>
@@ -6322,19 +6322,19 @@
         <v>184921</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>158836</v>
+        <v>160372</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>211366</v>
+        <v>215144</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1347683642940865</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1157573993526473</v>
+        <v>0.1168768523949789</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1540408974072256</v>
+        <v>0.1567944933978293</v>
       </c>
     </row>
     <row r="37">
@@ -6351,19 +6351,19 @@
         <v>5634</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12150</v>
+        <v>11849</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02110924136979515</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007430852780633854</v>
+        <v>0.007427775289313272</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04552746780707176</v>
+        <v>0.04439758989004475</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>42</v>
@@ -6372,19 +6372,19 @@
         <v>45093</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>31707</v>
+        <v>32699</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>60975</v>
+        <v>58897</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04079829040627853</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0286870175217063</v>
+        <v>0.02958510441229883</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05516842134488918</v>
+        <v>0.05328761019150633</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>48</v>
@@ -6393,19 +6393,19 @@
         <v>50726</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>36986</v>
+        <v>38332</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>65325</v>
+        <v>66381</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03696876597611161</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02695498478185188</v>
+        <v>0.02793618718849132</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04760788149505868</v>
+        <v>0.04837736399016068</v>
       </c>
     </row>
     <row r="38">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8400</v>
+        <v>7997</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.005007854625554181</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03147491838730777</v>
+        <v>0.0299657268255718</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>19</v>
@@ -6443,19 +6443,19 @@
         <v>19695</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>11838</v>
+        <v>12720</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>30554</v>
+        <v>30723</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.017819120538271</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01071082069452015</v>
+        <v>0.01150840419422759</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02764436496240772</v>
+        <v>0.02779697047977503</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>20</v>
@@ -6464,19 +6464,19 @@
         <v>21031</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>13251</v>
+        <v>12889</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>31419</v>
+        <v>31582</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01532732646009055</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0096575203689941</v>
+        <v>0.009393513886064804</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02289791255791639</v>
+        <v>0.02301636109482242</v>
       </c>
     </row>
     <row r="39">
@@ -6568,19 +6568,19 @@
         <v>1929514</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1869399</v>
+        <v>1866317</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1994574</v>
+        <v>1988525</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5657456155238794</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5481196203349601</v>
+        <v>0.5472157898129083</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5848215079106964</v>
+        <v>0.5830480367734824</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1710</v>
@@ -6589,19 +6589,19 @@
         <v>1844305</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1787231</v>
+        <v>1781162</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1906255</v>
+        <v>1905986</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5210281946724649</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5049044221312715</v>
+        <v>0.503189862271173</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5385294119276122</v>
+        <v>0.5384533920961802</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3530</v>
@@ -6610,19 +6610,19 @@
         <v>3773819</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3683384</v>
+        <v>3678654</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3860567</v>
+        <v>3854033</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5429713609377634</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5299596966228525</v>
+        <v>0.5292792423048116</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5554525686406562</v>
+        <v>0.5545124820160431</v>
       </c>
     </row>
     <row r="41">
@@ -6639,19 +6639,19 @@
         <v>905507</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>851339</v>
+        <v>855381</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>960261</v>
+        <v>960355</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2655002803538267</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2496180302246528</v>
+        <v>0.2508031263729966</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2815546349116033</v>
+        <v>0.2815819977107354</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>907</v>
@@ -6660,19 +6660,19 @@
         <v>970668</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>920697</v>
+        <v>915300</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1030306</v>
+        <v>1031845</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2742200008321145</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2601029048004385</v>
+        <v>0.258578140629914</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2910681347458122</v>
+        <v>0.2915028978665395</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1756</v>
@@ -6681,19 +6681,19 @@
         <v>1876175</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1801573</v>
+        <v>1806112</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1954237</v>
+        <v>1960309</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.269941170063279</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.259207624487578</v>
+        <v>0.2598607323003507</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2811726819317676</v>
+        <v>0.2820462702847393</v>
       </c>
     </row>
     <row r="42">
@@ -6710,19 +6710,19 @@
         <v>409627</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>370771</v>
+        <v>371741</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>451842</v>
+        <v>455148</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1201052696119208</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1087124235306954</v>
+        <v>0.1089969022804777</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1324827793552744</v>
+        <v>0.1334521326314754</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>441</v>
@@ -6731,19 +6731,19 @@
         <v>478788</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>442080</v>
+        <v>438759</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>523178</v>
+        <v>522979</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1352606599707813</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1248903942297195</v>
+        <v>0.1239523628289233</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1478013486090511</v>
+        <v>0.1477448958526568</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>813</v>
@@ -6752,19 +6752,19 @@
         <v>888415</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>833082</v>
+        <v>831273</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>948481</v>
+        <v>946541</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1278237988073213</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1198626261816698</v>
+        <v>0.1196022840878693</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1364660598366587</v>
+        <v>0.136186922402046</v>
       </c>
     </row>
     <row r="43">
@@ -6781,19 +6781,19 @@
         <v>128165</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>107110</v>
+        <v>107648</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>153533</v>
+        <v>154421</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03757888360203353</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.031405185769255</v>
+        <v>0.03156299280612735</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04501682293286646</v>
+        <v>0.04527710318512028</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>158</v>
@@ -6802,19 +6802,19 @@
         <v>174660</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>148333</v>
+        <v>147420</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>203567</v>
+        <v>202788</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.0493425269819729</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04190503664300772</v>
+        <v>0.04164716682869277</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05750908911362509</v>
+        <v>0.05728889800791479</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>278</v>
@@ -6823,19 +6823,19 @@
         <v>302825</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>270667</v>
+        <v>268821</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>342095</v>
+        <v>341362</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04357002092824945</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03894312687860994</v>
+        <v>0.03867751417805922</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04922016052537777</v>
+        <v>0.04911465795237614</v>
       </c>
     </row>
     <row r="44">
@@ -6852,19 +6852,19 @@
         <v>37755</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>27299</v>
+        <v>26121</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>54307</v>
+        <v>53135</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01106995090833963</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.008004307584252635</v>
+        <v>0.00765879429100238</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01592318566048666</v>
+        <v>0.01557959444424542</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>65</v>
@@ -6873,19 +6873,19 @@
         <v>71321</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>54852</v>
+        <v>54007</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>90264</v>
+        <v>90472</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02014861754266651</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01549600822028791</v>
+        <v>0.01525727677217059</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02550011894633107</v>
+        <v>0.02555879938495326</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>98</v>
@@ -6894,19 +6894,19 @@
         <v>109076</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>89017</v>
+        <v>89157</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>131908</v>
+        <v>133136</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01569364926338677</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01280768096645338</v>
+        <v>0.0128278289710791</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01897879619449533</v>
+        <v>0.01915534546529889</v>
       </c>
     </row>
     <row r="45">
@@ -7240,19 +7240,19 @@
         <v>221210</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>200767</v>
+        <v>200379</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>244652</v>
+        <v>241559</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5165707174452333</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4688321070938297</v>
+        <v>0.4679267814210414</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5713148709029722</v>
+        <v>0.5640906491340488</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>167</v>
@@ -7261,19 +7261,19 @@
         <v>171608</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>152766</v>
+        <v>152178</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>188491</v>
+        <v>189066</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4958045670312988</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4413666926433411</v>
+        <v>0.4396665191740591</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5445810606699164</v>
+        <v>0.5462438048270413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>372</v>
@@ -7282,19 +7282,19 @@
         <v>392818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>366604</v>
+        <v>362284</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>422823</v>
+        <v>420907</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5072885914554588</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4734359364148834</v>
+        <v>0.4678565869451709</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5460374215692801</v>
+        <v>0.5435631460023667</v>
       </c>
     </row>
     <row r="5">
@@ -7311,19 +7311,19 @@
         <v>134088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112712</v>
+        <v>116220</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>153019</v>
+        <v>154395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3131229663320972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2632065089119665</v>
+        <v>0.2713976359260333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3573323515164106</v>
+        <v>0.3605442530754505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -7332,19 +7332,19 @@
         <v>125798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108135</v>
+        <v>106891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>144150</v>
+        <v>143616</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3634514622572986</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3124184107841084</v>
+        <v>0.3088264511400778</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.416474179942144</v>
+        <v>0.4149287989004994</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>243</v>
@@ -7353,19 +7353,19 @@
         <v>259886</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>233068</v>
+        <v>235505</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>286291</v>
+        <v>290782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3356189721271868</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3009866211469004</v>
+        <v>0.3041331588949458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3697189012958188</v>
+        <v>0.3755182831836013</v>
       </c>
     </row>
     <row r="6">
@@ -7382,19 +7382,19 @@
         <v>59248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44325</v>
+        <v>44934</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77092</v>
+        <v>75949</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1383567513678133</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1035090134005991</v>
+        <v>0.1049295280097135</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1800258116734753</v>
+        <v>0.1773566349981341</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -7403,19 +7403,19 @@
         <v>41106</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29162</v>
+        <v>30082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54413</v>
+        <v>53756</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1187626841256077</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08425311779406953</v>
+        <v>0.0869121563648149</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1572073294523269</v>
+        <v>0.1553085511713541</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -7424,19 +7424,19 @@
         <v>100354</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82514</v>
+        <v>81083</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>120567</v>
+        <v>120349</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1295985271823511</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1065589106722208</v>
+        <v>0.1047110092815418</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1557008983835423</v>
+        <v>0.1554200395757877</v>
       </c>
     </row>
     <row r="7">
@@ -7453,19 +7453,19 @@
         <v>10603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5009</v>
+        <v>5522</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20855</v>
+        <v>20293</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02476020292436104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01169591349047229</v>
+        <v>0.01289587604456569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04870052258760816</v>
+        <v>0.04738804921318951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -7474,19 +7474,19 @@
         <v>6573</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2184</v>
+        <v>2267</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12963</v>
+        <v>14660</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01899115598667448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006309767685979923</v>
+        <v>0.006550083050524273</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03745270494630277</v>
+        <v>0.04235552489184831</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -7495,19 +7495,19 @@
         <v>17176</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10413</v>
+        <v>10236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27984</v>
+        <v>28218</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0221815343002237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01344692897896539</v>
+        <v>0.01321838154527054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03613818975718967</v>
+        <v>0.03644084724701186</v>
       </c>
     </row>
     <row r="8">
@@ -7524,19 +7524,19 @@
         <v>3079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8220</v>
+        <v>8277</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007189361930495148</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002339360929920774</v>
+        <v>0.002322191649815554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01919610416544965</v>
+        <v>0.01932938634740565</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6232</v>
+        <v>5254</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00299013059912048</v>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01800543286489352</v>
+        <v>0.01517832098579001</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -7569,16 +7569,16 @@
         <v>1034</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9371</v>
+        <v>10294</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00531237493477959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001335692349521743</v>
+        <v>0.001335140783858328</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01210139701435744</v>
+        <v>0.01329400705665106</v>
       </c>
     </row>
     <row r="9">
@@ -7670,19 +7670,19 @@
         <v>198087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>178446</v>
+        <v>177448</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217234</v>
+        <v>217417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5285540295823749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4761458505838658</v>
+        <v>0.4734850356383574</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5796456063673912</v>
+        <v>0.5801325603590098</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -7691,19 +7691,19 @@
         <v>191700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172718</v>
+        <v>173119</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210712</v>
+        <v>210633</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.516395150058835</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4652610699710767</v>
+        <v>0.4663401076079705</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5676073570680413</v>
+        <v>0.5673943048396091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -7712,19 +7712,19 @@
         <v>389787</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>364602</v>
+        <v>361457</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>417848</v>
+        <v>417235</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5225034636287937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4887433133223091</v>
+        <v>0.4845269919536223</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5601191799097863</v>
+        <v>0.5592976281480221</v>
       </c>
     </row>
     <row r="11">
@@ -7741,19 +7741,19 @@
         <v>114289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96062</v>
+        <v>96372</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132303</v>
+        <v>133737</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3049576795297083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2563225521482549</v>
+        <v>0.2571497743374679</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3530240892013585</v>
+        <v>0.3568497313921863</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>118</v>
@@ -7762,19 +7762,19 @@
         <v>126243</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108810</v>
+        <v>107920</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145687</v>
+        <v>142893</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3400683812306538</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2931069360988375</v>
+        <v>0.2907109304400753</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3924457815471086</v>
+        <v>0.384920410678565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>226</v>
@@ -7783,19 +7783,19 @@
         <v>240532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>213870</v>
+        <v>214350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>265003</v>
+        <v>265517</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.322429652659041</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2866900114599478</v>
+        <v>0.2873323695361081</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3552319303956443</v>
+        <v>0.3559211566580762</v>
       </c>
     </row>
     <row r="12">
@@ -7812,19 +7812,19 @@
         <v>51713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39674</v>
+        <v>39643</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67574</v>
+        <v>66119</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1379866281077107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1058624803367617</v>
+        <v>0.1057805486796801</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1803075255697398</v>
+        <v>0.1764246226060527</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -7833,19 +7833,19 @@
         <v>49170</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36948</v>
+        <v>37761</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>62043</v>
+        <v>63582</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1324525808406027</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09952854107796365</v>
+        <v>0.1017186674745983</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1671283414785359</v>
+        <v>0.1712760744138522</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>94</v>
@@ -7854,19 +7854,19 @@
         <v>100883</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>82998</v>
+        <v>82750</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>121282</v>
+        <v>120987</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1352327462294466</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1112569553487332</v>
+        <v>0.1109245122578264</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1625772314600277</v>
+        <v>0.1621807174287863</v>
       </c>
     </row>
     <row r="13">
@@ -7883,19 +7883,19 @@
         <v>7437</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3176</v>
+        <v>3168</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15611</v>
+        <v>14301</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01984312110908162</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00847518393717793</v>
+        <v>0.008452368323992897</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04165386440120639</v>
+        <v>0.03815815377477463</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -7904,19 +7904,19 @@
         <v>4115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9436</v>
+        <v>10513</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01108388786990863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002814186325383783</v>
+        <v>0.002786232279421796</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02541789065944246</v>
+        <v>0.02831919588728948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -7925,19 +7925,19 @@
         <v>11551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6369</v>
+        <v>6168</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19821</v>
+        <v>20105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01548430512494345</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008536958772728257</v>
+        <v>0.008268692475153107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02657012471745841</v>
+        <v>0.02695030795074885</v>
       </c>
     </row>
     <row r="14">
@@ -7954,19 +7954,19 @@
         <v>3245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9123</v>
+        <v>9134</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008658541671124551</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002650638915188866</v>
+        <v>0.002655975450406938</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02434184904728005</v>
+        <v>0.02437094040806093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>3245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8681</v>
+        <v>8787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004349832357775167</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001331723666039999</v>
+        <v>0.001333114781299626</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01163740930787075</v>
+        <v>0.01177935042643361</v>
       </c>
     </row>
     <row r="15">
@@ -8092,19 +8092,19 @@
         <v>211286</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>189322</v>
+        <v>190484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>233181</v>
+        <v>235955</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4048297602807549</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3627455386434805</v>
+        <v>0.3649713494560791</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4467805427532046</v>
+        <v>0.4520947149114907</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -8113,19 +8113,19 @@
         <v>78842</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66117</v>
+        <v>64284</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>92556</v>
+        <v>91969</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4819117170642884</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4041348739109001</v>
+        <v>0.3929272175857236</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5657383340560597</v>
+        <v>0.5621494184012651</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>283</v>
@@ -8134,19 +8134,19 @@
         <v>290128</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>265278</v>
+        <v>263472</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>317133</v>
+        <v>316113</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4232257883767372</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3869750844712624</v>
+        <v>0.3843414374850077</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4626199975684914</v>
+        <v>0.4611312849827751</v>
       </c>
     </row>
     <row r="17">
@@ -8163,19 +8163,19 @@
         <v>201049</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179327</v>
+        <v>177900</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>225122</v>
+        <v>221784</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3852146121153724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3435950953476302</v>
+        <v>0.340860222894064</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4313399125861184</v>
+        <v>0.4249443199724435</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -8184,19 +8184,19 @@
         <v>47162</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36153</v>
+        <v>36384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59892</v>
+        <v>60380</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2882706763030624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2209818886538914</v>
+        <v>0.2223913478996007</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3660846260432062</v>
+        <v>0.3690638386900247</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>235</v>
@@ -8205,19 +8205,19 @@
         <v>248211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>222451</v>
+        <v>223765</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>274788</v>
+        <v>275667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3620784147307293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3245020177687126</v>
+        <v>0.3264183624182431</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4008485590472385</v>
+        <v>0.402130727173527</v>
       </c>
     </row>
     <row r="18">
@@ -8234,19 +8234,19 @@
         <v>77160</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61401</v>
+        <v>60994</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93762</v>
+        <v>94389</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1478399664904634</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1176462209403935</v>
+        <v>0.1168661585500618</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.179649759205271</v>
+        <v>0.1808511868643286</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -8255,19 +8255,19 @@
         <v>25173</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16699</v>
+        <v>16655</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37351</v>
+        <v>37562</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1538699251209081</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1020681344902618</v>
+        <v>0.1018013190682664</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2283025877980507</v>
+        <v>0.2295940468895091</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>95</v>
@@ -8276,19 +8276,19 @@
         <v>102333</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>83590</v>
+        <v>84121</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121350</v>
+        <v>122733</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.149279048903677</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1219376327244886</v>
+        <v>0.1227119732955629</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1770206259069541</v>
+        <v>0.1790378763417086</v>
       </c>
     </row>
     <row r="19">
@@ -8305,19 +8305,19 @@
         <v>29342</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18972</v>
+        <v>20107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41647</v>
+        <v>42176</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05621919120265888</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03635101728811427</v>
+        <v>0.03852473068870903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07979615722749266</v>
+        <v>0.08080936148048784</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -8326,19 +8326,19 @@
         <v>8681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3789</v>
+        <v>3643</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18009</v>
+        <v>17479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05306264048880431</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02316208629400029</v>
+        <v>0.02226856817851209</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1100785371240381</v>
+        <v>0.1068386910418043</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -8347,19 +8347,19 @@
         <v>38023</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27218</v>
+        <v>27025</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52861</v>
+        <v>51393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05546586321201728</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03970429259915158</v>
+        <v>0.03942247001109336</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07711129221598896</v>
+        <v>0.07496989344602233</v>
       </c>
     </row>
     <row r="20">
@@ -8376,19 +8376,19 @@
         <v>3077</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9244</v>
+        <v>9162</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005896469910750368</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001570119710170201</v>
+        <v>0.001587452134850576</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01771232552522862</v>
+        <v>0.01755455279332709</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -8397,19 +8397,19 @@
         <v>3744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1076</v>
+        <v>1100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10768</v>
+        <v>11009</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02288504102293679</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006577023069323592</v>
+        <v>0.006722058869565076</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06581725989307638</v>
+        <v>0.06729299892234961</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -8418,19 +8418,19 @@
         <v>6821</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2353</v>
+        <v>2319</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15134</v>
+        <v>14203</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009950884776839199</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003432258464242129</v>
+        <v>0.003383449297711838</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02207676814358547</v>
+        <v>0.0207186022679244</v>
       </c>
     </row>
     <row r="21">
@@ -8522,19 +8522,19 @@
         <v>492490</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>458554</v>
+        <v>457308</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>526383</v>
+        <v>525113</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4291841048496379</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3996103583513786</v>
+        <v>0.3985248699681484</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4587206738187687</v>
+        <v>0.4576134981072207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>384</v>
@@ -8543,19 +8543,19 @@
         <v>390515</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>364586</v>
+        <v>362275</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>421768</v>
+        <v>420140</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4740134829985251</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4425400462047136</v>
+        <v>0.4397350807300507</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5119483277088259</v>
+        <v>0.509972483166144</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>860</v>
@@ -8564,19 +8564,19 @@
         <v>883005</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>834186</v>
+        <v>838112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>924741</v>
+        <v>927928</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4479187707679154</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4231542759841586</v>
+        <v>0.425145978734596</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4690900662581291</v>
+        <v>0.4707067398386802</v>
       </c>
     </row>
     <row r="23">
@@ -8593,19 +8593,19 @@
         <v>403237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>371501</v>
+        <v>373303</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>433184</v>
+        <v>437700</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3514035601898187</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3237477373240445</v>
+        <v>0.3253178319796305</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3775013007083857</v>
+        <v>0.3814366265653769</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>252</v>
@@ -8614,19 +8614,19 @@
         <v>262675</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>234450</v>
+        <v>236589</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>287804</v>
+        <v>291256</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3188393507001957</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2845785884196931</v>
+        <v>0.2871760414859549</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3493416834496221</v>
+        <v>0.3535316838120413</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>636</v>
@@ -8635,19 +8635,19 @@
         <v>665912</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>627185</v>
+        <v>624713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>713215</v>
+        <v>711265</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3377946365135925</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3181497033544984</v>
+        <v>0.316896080350305</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3617899337970202</v>
+        <v>0.3608005486028761</v>
       </c>
     </row>
     <row r="24">
@@ -8664,19 +8664,19 @@
         <v>193634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>171446</v>
+        <v>168084</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>220982</v>
+        <v>218359</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1687435431321652</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1494081367771136</v>
+        <v>0.1464782607134396</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.192576767331942</v>
+        <v>0.1902903718329362</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>114</v>
@@ -8685,19 +8685,19 @@
         <v>121264</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>101715</v>
+        <v>101968</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>142277</v>
+        <v>142394</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1471922479294484</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1234627428231025</v>
+        <v>0.1237709530077028</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1726980548934494</v>
+        <v>0.1728398385917597</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>298</v>
@@ -8706,19 +8706,19 @@
         <v>314898</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>283618</v>
+        <v>286994</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>346770</v>
+        <v>349545</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1597370315007051</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1438701169470444</v>
+        <v>0.1455822844051693</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1759048591791349</v>
+        <v>0.1773126108458521</v>
       </c>
     </row>
     <row r="25">
@@ -8735,19 +8735,19 @@
         <v>46349</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33602</v>
+        <v>33219</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>62219</v>
+        <v>61159</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04039090237986222</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02928298686317513</v>
+        <v>0.02894871765058079</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05422131072782608</v>
+        <v>0.0532977464266368</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -8756,19 +8756,19 @@
         <v>41750</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30776</v>
+        <v>30494</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55469</v>
+        <v>57498</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05067638181337016</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03735618955780688</v>
+        <v>0.03701361101316989</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06732890996108494</v>
+        <v>0.06979160443163197</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -8777,19 +8777,19 @@
         <v>88098</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>70520</v>
+        <v>71113</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108554</v>
+        <v>107259</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04468931179246007</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03577257523164067</v>
+        <v>0.03607327923867688</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05506563553988362</v>
+        <v>0.05440901389007861</v>
       </c>
     </row>
     <row r="26">
@@ -8806,19 +8806,19 @@
         <v>11794</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5806</v>
+        <v>6389</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20093</v>
+        <v>22017</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01027788944851607</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0050597717004275</v>
+        <v>0.005567865505670773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01751057032521053</v>
+        <v>0.01918648604658359</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -8827,19 +8827,19 @@
         <v>7644</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3244</v>
+        <v>3525</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15043</v>
+        <v>15195</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009278536558460584</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00393766922657368</v>
+        <v>0.004279004770509924</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01825923951889741</v>
+        <v>0.01844446279905202</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -8848,19 +8848,19 @@
         <v>19438</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11462</v>
+        <v>11433</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30212</v>
+        <v>31092</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009860249425326959</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005814433030840419</v>
+        <v>0.005799665824986474</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01532552259804506</v>
+        <v>0.0157721434274845</v>
       </c>
     </row>
     <row r="27">
@@ -8952,19 +8952,19 @@
         <v>282501</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>259451</v>
+        <v>256708</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>307337</v>
+        <v>306732</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4559066915874927</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4187076547257798</v>
+        <v>0.4142812107317839</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4959876223233178</v>
+        <v>0.4950110943224575</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>326</v>
@@ -8973,19 +8973,19 @@
         <v>340839</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>310328</v>
+        <v>314958</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>367675</v>
+        <v>368072</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4641529254645558</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4226024087582917</v>
+        <v>0.4289083035332184</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5006984680066617</v>
+        <v>0.5012379306467456</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>595</v>
@@ -8994,19 +8994,19 @@
         <v>623340</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>584540</v>
+        <v>585820</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>661139</v>
+        <v>662344</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4603790238426708</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4317220763171642</v>
+        <v>0.4326677483203777</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4882957275260926</v>
+        <v>0.4891856835543138</v>
       </c>
     </row>
     <row r="29">
@@ -9023,19 +9023,19 @@
         <v>210403</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>186805</v>
+        <v>186728</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>234340</v>
+        <v>232849</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3395530166388301</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3014693395057863</v>
+        <v>0.3013452857377821</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3781824109159232</v>
+        <v>0.3757767642946046</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>214</v>
@@ -9044,19 +9044,19 @@
         <v>227810</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>202624</v>
+        <v>203270</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>254240</v>
+        <v>255283</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3102302321423198</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2759322781915947</v>
+        <v>0.2768126074209512</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3462231350196446</v>
+        <v>0.3476430837420569</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>420</v>
@@ -9065,19 +9065,19 @@
         <v>438213</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>403810</v>
+        <v>401685</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>476642</v>
+        <v>472766</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3236498495845764</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2982411777361089</v>
+        <v>0.2966714525910512</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3520322349725757</v>
+        <v>0.3491696663437048</v>
       </c>
     </row>
     <row r="30">
@@ -9094,19 +9094,19 @@
         <v>81465</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>64435</v>
+        <v>65404</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>97577</v>
+        <v>97510</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1314705100136035</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1039860447792661</v>
+        <v>0.1055507880885369</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1574714508974218</v>
+        <v>0.1573645333316905</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>99</v>
@@ -9115,19 +9115,19 @@
         <v>103962</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86001</v>
+        <v>85906</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>123145</v>
+        <v>124160</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1415744398407811</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.117115179731998</v>
+        <v>0.1169863921746247</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1676982906531228</v>
+        <v>0.1690806013191972</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>175</v>
@@ -9136,19 +9136,19 @@
         <v>185427</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>160144</v>
+        <v>161805</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>212681</v>
+        <v>212286</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1369503608089871</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1182770812277753</v>
+        <v>0.1195040989393778</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1570794496558457</v>
+        <v>0.1567877547492577</v>
       </c>
     </row>
     <row r="31">
@@ -9165,19 +9165,19 @@
         <v>32413</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23173</v>
+        <v>22867</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44194</v>
+        <v>45831</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05230809205087358</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0373969079336112</v>
+        <v>0.03690367175088253</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07132057990309157</v>
+        <v>0.07396350132228874</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>49</v>
@@ -9186,19 +9186,19 @@
         <v>53491</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>41204</v>
+        <v>39786</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>68841</v>
+        <v>68696</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07284312577306434</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05611113909342286</v>
+        <v>0.05418055998841913</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09374779051896277</v>
+        <v>0.09355033266804681</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>82</v>
@@ -9207,19 +9207,19 @@
         <v>85903</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>68395</v>
+        <v>69765</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>104820</v>
+        <v>104579</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06344523599392574</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0505143141073287</v>
+        <v>0.05152646062670043</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07741693015176339</v>
+        <v>0.07723849853658538</v>
       </c>
     </row>
     <row r="32">
@@ -9236,19 +9236,19 @@
         <v>12865</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6695</v>
+        <v>7005</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21828</v>
+        <v>21550</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0207616897092001</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01080466222839317</v>
+        <v>0.01130516174156559</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03522634765773603</v>
+        <v>0.03477758910725049</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -9257,19 +9257,19 @@
         <v>8224</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3234</v>
+        <v>3319</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17141</v>
+        <v>16959</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01119927677927898</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004403604854432158</v>
+        <v>0.004520319094079473</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02334305876418498</v>
+        <v>0.02309404497193591</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>19</v>
@@ -9278,19 +9278,19 @@
         <v>21089</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12865</v>
+        <v>13156</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33434</v>
+        <v>32067</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01557552976983999</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009501544687599447</v>
+        <v>0.009716411549076966</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02469354651009145</v>
+        <v>0.02368373348417388</v>
       </c>
     </row>
     <row r="33">
@@ -9382,19 +9382,19 @@
         <v>168567</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>151827</v>
+        <v>150545</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>185853</v>
+        <v>184883</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5870463751108558</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5287462759303075</v>
+        <v>0.524283224600339</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6472436771446503</v>
+        <v>0.6438652194542869</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>446</v>
@@ -9403,19 +9403,19 @@
         <v>473802</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>440919</v>
+        <v>441883</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>506274</v>
+        <v>509024</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4387770163149316</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4083247178332644</v>
+        <v>0.4092176419387998</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4688490058220039</v>
+        <v>0.4713952626826707</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>605</v>
@@ -9424,19 +9424,19 @@
         <v>642370</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>605571</v>
+        <v>606290</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>682256</v>
+        <v>679454</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4699224222720937</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4430024643158054</v>
+        <v>0.4435280908039152</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4991008432316106</v>
+        <v>0.4970508113294176</v>
       </c>
     </row>
     <row r="35">
@@ -9453,19 +9453,19 @@
         <v>78299</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>64257</v>
+        <v>63577</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>95572</v>
+        <v>94475</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2726819143887094</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2237774350389541</v>
+        <v>0.2214106651973771</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3328355549422245</v>
+        <v>0.3290143166846828</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>316</v>
@@ -9474,19 +9474,19 @@
         <v>343761</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>309250</v>
+        <v>313823</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>375567</v>
+        <v>375648</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3183493976186789</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2863895008064776</v>
+        <v>0.2906245120760122</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3478036689751076</v>
+        <v>0.3478791799696136</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>391</v>
@@ -9495,19 +9495,19 @@
         <v>422061</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>388467</v>
+        <v>387921</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>458177</v>
+        <v>461906</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3087565032014516</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2841807977363676</v>
+        <v>0.2837817934432435</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3351774297207558</v>
+        <v>0.3379053404891357</v>
       </c>
     </row>
     <row r="36">
@@ -9524,19 +9524,19 @@
         <v>38261</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27763</v>
+        <v>27313</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>51240</v>
+        <v>50444</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1332449250346263</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0966860353720807</v>
+        <v>0.09511989516216776</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1784462645441949</v>
+        <v>0.1756755398902428</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>176</v>
@@ -9545,19 +9545,19 @@
         <v>201771</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>175763</v>
+        <v>175207</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>230294</v>
+        <v>228410</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1868557634860109</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1627697946895802</v>
+        <v>0.1622547704334125</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2132698100442501</v>
+        <v>0.211525246548107</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>212</v>
@@ -9566,19 +9566,19 @@
         <v>240032</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>209821</v>
+        <v>212286</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>269687</v>
+        <v>270983</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1755942908470795</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1534932878947637</v>
+        <v>0.1552966203771093</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.197288130210283</v>
+        <v>0.1982362309302955</v>
       </c>
     </row>
     <row r="37">
@@ -9608,19 +9608,19 @@
         <v>38726</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28057</v>
+        <v>27583</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>52730</v>
+        <v>52644</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03586302810292439</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0259828656601277</v>
+        <v>0.02554404922562359</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04883209300228694</v>
+        <v>0.04875244891927585</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>34</v>
@@ -9629,19 +9629,19 @@
         <v>38726</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27615</v>
+        <v>28310</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>54846</v>
+        <v>52912</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02832965385628674</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02020156422260829</v>
+        <v>0.02071028190743171</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0401222818090501</v>
+        <v>0.03870750416830494</v>
       </c>
     </row>
     <row r="38">
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6900</v>
+        <v>6421</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.007026785465808533</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02402993577897909</v>
+        <v>0.02236172635897249</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>18</v>
@@ -9679,19 +9679,19 @@
         <v>21764</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>12512</v>
+        <v>13342</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33015</v>
+        <v>33440</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02015479447745418</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01158751971531892</v>
+        <v>0.01235604357280197</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03057439706377219</v>
+        <v>0.03096798353315976</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>20</v>
@@ -9700,19 +9700,19 @@
         <v>23781</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>14968</v>
+        <v>13914</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>35939</v>
+        <v>33997</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01739712982308848</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01095008169529904</v>
+        <v>0.01017873196141539</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02629130483230187</v>
+        <v>0.02487066673895728</v>
       </c>
     </row>
     <row r="39">
@@ -9804,19 +9804,19 @@
         <v>1574141</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1513097</v>
+        <v>1515880</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1634810</v>
+        <v>1632480</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4658315692229321</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.4477668172012264</v>
+        <v>0.4485903627645109</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4837849796837008</v>
+        <v>0.4830954817346623</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1582</v>
@@ -9825,19 +9825,19 @@
         <v>1647307</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1578836</v>
+        <v>1588366</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1703563</v>
+        <v>1714131</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4681247087281176</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4486669879480313</v>
+        <v>0.4513753412936977</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4841114553534408</v>
+        <v>0.4871146976678163</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3084</v>
@@ -9846,19 +9846,19 @@
         <v>3221447</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3137342</v>
+        <v>3137679</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3296839</v>
+        <v>3300742</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.4670013658811693</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.4548089872528939</v>
+        <v>0.4548577884292861</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4779305592478394</v>
+        <v>0.4784964246174615</v>
       </c>
     </row>
     <row r="41">
@@ -9875,19 +9875,19 @@
         <v>1141365</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1083296</v>
+        <v>1087590</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1197220</v>
+        <v>1196193</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3377611293961255</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.320577102191952</v>
+        <v>0.3218476067077068</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3542902181718606</v>
+        <v>0.3539864462111117</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1061</v>
@@ -9896,19 +9896,19 @@
         <v>1133449</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1076215</v>
+        <v>1075856</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1189624</v>
+        <v>1187038</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3220988269912345</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3058341671035764</v>
+        <v>0.3057321556881559</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3380622730084157</v>
+        <v>0.3373273780934578</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2151</v>
@@ -9917,19 +9917,19 @@
         <v>2274813</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2197298</v>
+        <v>2197790</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2361450</v>
+        <v>2355258</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3297713368117184</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3185342145488468</v>
+        <v>0.3186055430515085</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.342330740771422</v>
+        <v>0.3414330258227908</v>
       </c>
     </row>
     <row r="42">
@@ -9946,19 +9946,19 @@
         <v>501481</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>461153</v>
+        <v>458010</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>543415</v>
+        <v>540769</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1484019361989147</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1364679295472271</v>
+        <v>0.1355378449940031</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1608114275770808</v>
+        <v>0.1600283722059023</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>496</v>
@@ -9967,19 +9967,19 @@
         <v>542447</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>498876</v>
+        <v>500499</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>588138</v>
+        <v>588010</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.154150291328264</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.141768374696043</v>
+        <v>0.1422298523436049</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1671345838032277</v>
+        <v>0.1670983766878314</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>966</v>
@@ -9988,19 +9988,19 @@
         <v>1043928</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>986380</v>
+        <v>983677</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1109247</v>
+        <v>1110137</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1513343380896272</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1429918127272254</v>
+        <v>0.1426000163082433</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1608034332847489</v>
+        <v>0.1609324644262254</v>
       </c>
     </row>
     <row r="43">
@@ -10017,19 +10017,19 @@
         <v>126142</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>106648</v>
+        <v>103456</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>153367</v>
+        <v>149305</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03732900249852377</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03156009909303982</v>
+        <v>0.03061533807981904</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04538556581276472</v>
+        <v>0.04418339824905421</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>139</v>
@@ -10038,19 +10038,19 @@
         <v>153335</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>130853</v>
+        <v>130341</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>183151</v>
+        <v>180495</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04357409384080899</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03718524288641716</v>
+        <v>0.03703970973584592</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05204713723883822</v>
+        <v>0.05129218340850075</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>261</v>
@@ -10059,19 +10059,19 @@
         <v>279477</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>245738</v>
+        <v>244956</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>313152</v>
+        <v>316984</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04051480387086565</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03562367692753418</v>
+        <v>0.03551032614018821</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0453965598429986</v>
+        <v>0.04595198938220777</v>
       </c>
     </row>
     <row r="44">
@@ -10088,19 +10088,19 @@
         <v>36078</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>25330</v>
+        <v>25676</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>49275</v>
+        <v>51260</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01067636268350393</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.007495837301425548</v>
+        <v>0.007598161734555078</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01458170509995937</v>
+        <v>0.01516938191400217</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>36</v>
@@ -10109,19 +10109,19 @@
         <v>42411</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>29113</v>
+        <v>30117</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>56060</v>
+        <v>57832</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01205207911157489</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008273143215153248</v>
+        <v>0.008558489673464332</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01593087288568869</v>
+        <v>0.01643457807652208</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>70</v>
@@ -10130,19 +10130,19 @@
         <v>78488</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>61487</v>
+        <v>61457</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>99231</v>
+        <v>99430</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0113781553466194</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.008913517093738197</v>
+        <v>0.008909168878079254</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01438515202989438</v>
+        <v>0.0144140508544362</v>
       </c>
     </row>
     <row r="45">
@@ -10476,19 +10476,19 @@
         <v>327210</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>302935</v>
+        <v>303766</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>352079</v>
+        <v>352785</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5950542371430496</v>
+        <v>0.5950542371430497</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5509079746721084</v>
+        <v>0.5524196968541103</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6402803604291308</v>
+        <v>0.6415643337670623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>461</v>
@@ -10497,19 +10497,19 @@
         <v>332724</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>313610</v>
+        <v>315496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>350484</v>
+        <v>352010</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6812371865446115</v>
+        <v>0.6812371865446114</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6421034053048585</v>
+        <v>0.6459651115024998</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7176004385330288</v>
+        <v>0.7207241416890806</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>781</v>
@@ -10518,19 +10518,19 @@
         <v>659934</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>631282</v>
+        <v>633126</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>689319</v>
+        <v>690361</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6355944633265375</v>
+        <v>0.6355944633265376</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.607999201163417</v>
+        <v>0.6097748891349278</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6638959899455006</v>
+        <v>0.6648995204354995</v>
       </c>
     </row>
     <row r="5">
@@ -10547,19 +10547,19 @@
         <v>156538</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134985</v>
+        <v>133695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176528</v>
+        <v>176863</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2846745107382653</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.24547902961095</v>
+        <v>0.2431327490600991</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3210277853337836</v>
+        <v>0.3216376448057142</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>176</v>
@@ -10568,19 +10568,19 @@
         <v>120272</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104677</v>
+        <v>104123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139358</v>
+        <v>137198</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2462509072544656</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2143216402381131</v>
+        <v>0.2131865688528526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2853301115677803</v>
+        <v>0.2809075716741711</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -10589,19 +10589,19 @@
         <v>276809</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>250979</v>
+        <v>251357</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>305303</v>
+        <v>303285</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2666001516355162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2417228417165725</v>
+        <v>0.2420864531808972</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2940431268343521</v>
+        <v>0.2920996943423035</v>
       </c>
     </row>
     <row r="6">
@@ -10618,19 +10618,19 @@
         <v>47880</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35344</v>
+        <v>34681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64220</v>
+        <v>65273</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08707220455499241</v>
+        <v>0.08707220455499244</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06427508758880553</v>
+        <v>0.06307048430800576</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1167880789159294</v>
+        <v>0.1187043251723169</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -10639,19 +10639,19 @@
         <v>19611</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12521</v>
+        <v>12704</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29201</v>
+        <v>28975</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.04015279470621153</v>
+        <v>0.04015279470621152</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02563563022394059</v>
+        <v>0.02601028190295904</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05978849192071373</v>
+        <v>0.05932448273621991</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>70</v>
@@ -10660,19 +10660,19 @@
         <v>67491</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51043</v>
+        <v>51153</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86750</v>
+        <v>85019</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06500144112819713</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04916078405671239</v>
+        <v>0.04926627853022522</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08355041968871905</v>
+        <v>0.08188377365233596</v>
       </c>
     </row>
     <row r="7">
@@ -10689,19 +10689,19 @@
         <v>13860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7471</v>
+        <v>7133</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23151</v>
+        <v>23288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02520601732510494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01358675827660681</v>
+        <v>0.0129720101664763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04210230377361295</v>
+        <v>0.04235084075294861</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -10710,19 +10710,19 @@
         <v>11485</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6787</v>
+        <v>7312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18554</v>
+        <v>17956</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02351545705008716</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0138963863782109</v>
+        <v>0.01497189571545939</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03798800778946972</v>
+        <v>0.03676357552362176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -10731,19 +10731,19 @@
         <v>25346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16832</v>
+        <v>17240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36411</v>
+        <v>35716</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02441078234647008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0162114514634077</v>
+        <v>0.01660424692858664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03506767240177547</v>
+        <v>0.03439864305057246</v>
       </c>
     </row>
     <row r="8">
@@ -10760,19 +10760,19 @@
         <v>4395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1545</v>
+        <v>1215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12374</v>
+        <v>11365</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.007993030238587584</v>
+        <v>0.007993030238587585</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002809944598144023</v>
+        <v>0.002209571519838944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02250224512661616</v>
+        <v>0.0206682284867085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -10781,19 +10781,19 @@
         <v>4319</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1922</v>
+        <v>1754</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9266</v>
+        <v>8197</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.008843654444624335</v>
+        <v>0.008843654444624333</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003934598459486759</v>
+        <v>0.003590685614884058</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01897237416466406</v>
+        <v>0.01678375415041935</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -10802,19 +10802,19 @@
         <v>8715</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4651</v>
+        <v>4337</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16511</v>
+        <v>15961</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008393161563279225</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004479283660789683</v>
+        <v>0.004176956273336855</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01590251711137539</v>
+        <v>0.01537257070000068</v>
       </c>
     </row>
     <row r="9">
@@ -10906,19 +10906,19 @@
         <v>254467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>232091</v>
+        <v>228400</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>277608</v>
+        <v>276872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5266150298503677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4803079380581782</v>
+        <v>0.4726714034407891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5745051661335985</v>
+        <v>0.5729817879875775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>344</v>
@@ -10927,19 +10927,19 @@
         <v>253236</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>236971</v>
+        <v>233209</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>270888</v>
+        <v>270630</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5984646658578001</v>
+        <v>0.5984646658578</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5600265411307505</v>
+        <v>0.5511345497887331</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6401812555539566</v>
+        <v>0.6395715898214358</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>584</v>
@@ -10948,19 +10948,19 @@
         <v>507703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>478484</v>
+        <v>481285</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>536234</v>
+        <v>534849</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5601589061602525</v>
+        <v>0.5601589061602527</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5279212306128267</v>
+        <v>0.5310112667305589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5916382909532024</v>
+        <v>0.5901101982218888</v>
       </c>
     </row>
     <row r="11">
@@ -10977,19 +10977,19 @@
         <v>155925</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>136103</v>
+        <v>136893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>176956</v>
+        <v>181984</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3226844728259933</v>
+        <v>0.3226844728259932</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2816631818555618</v>
+        <v>0.2832980959450091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.366208443472157</v>
+        <v>0.3766125158082777</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>168</v>
@@ -10998,19 +10998,19 @@
         <v>116667</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101388</v>
+        <v>101718</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>132332</v>
+        <v>136378</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2757163783057793</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2396079936169127</v>
+        <v>0.2403871657765735</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3127354124721947</v>
+        <v>0.3222973597570542</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>335</v>
@@ -11019,19 +11019,19 @@
         <v>272592</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>245897</v>
+        <v>248361</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>299823</v>
+        <v>300947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3007568467356668</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2713035107678294</v>
+        <v>0.2740219636018348</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3308012013955669</v>
+        <v>0.3320405934010693</v>
       </c>
     </row>
     <row r="12">
@@ -11048,19 +11048,19 @@
         <v>53063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39983</v>
+        <v>39044</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>68186</v>
+        <v>67781</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1098126479627776</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08274470332741131</v>
+        <v>0.08080117221327475</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1411099810821034</v>
+        <v>0.1402724051900461</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -11069,19 +11069,19 @@
         <v>37941</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29196</v>
+        <v>29477</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50565</v>
+        <v>50467</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08966491112006407</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06899753969167824</v>
+        <v>0.06966259862143996</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1194991772695592</v>
+        <v>0.1192659067154433</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>107</v>
@@ -11090,19 +11090,19 @@
         <v>91004</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>74169</v>
+        <v>75340</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>111836</v>
+        <v>110405</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1004064320077492</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08183210084471489</v>
+        <v>0.08312403100288795</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.12339112275</v>
+        <v>0.1218115582489788</v>
       </c>
     </row>
     <row r="13">
@@ -11119,19 +11119,19 @@
         <v>16629</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9546</v>
+        <v>9394</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27589</v>
+        <v>27823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03441273156311925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01975610258404328</v>
+        <v>0.01943994361574011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0570952875470201</v>
+        <v>0.05758020863371005</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -11140,19 +11140,19 @@
         <v>10931</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6634</v>
+        <v>6435</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17065</v>
+        <v>16722</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02583281239139939</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0156789030008793</v>
+        <v>0.01520666984293646</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04032801234370513</v>
+        <v>0.03951743566148963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -11161,19 +11161,19 @@
         <v>27560</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19184</v>
+        <v>19094</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39643</v>
+        <v>38677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03040709196022398</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02116661833673802</v>
+        <v>0.02106714773506458</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04373897216902593</v>
+        <v>0.04267345991325377</v>
       </c>
     </row>
     <row r="14">
@@ -11190,19 +11190,19 @@
         <v>3129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>855</v>
+        <v>1053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7828</v>
+        <v>7867</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.006475117797742187</v>
+        <v>0.006475117797742186</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001770024918384519</v>
+        <v>0.00217885377041444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0162006809243008</v>
+        <v>0.016280210898072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -11211,19 +11211,19 @@
         <v>4367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1755</v>
+        <v>1798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8286</v>
+        <v>9369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01032123232495709</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004148222156341845</v>
+        <v>0.004248658425598231</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01958108276701231</v>
+        <v>0.0221415942326576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -11232,19 +11232,19 @@
         <v>7496</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3795</v>
+        <v>3982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13299</v>
+        <v>13530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008270723136107473</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004187611596738232</v>
+        <v>0.004393774648171341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01467280941566832</v>
+        <v>0.0149279734145144</v>
       </c>
     </row>
     <row r="15">
@@ -11336,19 +11336,19 @@
         <v>258027</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>234494</v>
+        <v>237373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>278050</v>
+        <v>281077</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.5471171053233578</v>
+        <v>0.5471171053233577</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4972178959903912</v>
+        <v>0.5033215897998542</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5895733673715671</v>
+        <v>0.595991559640237</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -11357,19 +11357,19 @@
         <v>96268</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84748</v>
+        <v>85692</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108424</v>
+        <v>108497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5134397730867533</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.451997294537618</v>
+        <v>0.4570323964842134</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5782717448298152</v>
+        <v>0.5786572770305198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>396</v>
@@ -11378,19 +11378,19 @@
         <v>354295</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>328045</v>
+        <v>330045</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>378473</v>
+        <v>379025</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5375368866359356</v>
+        <v>0.5375368866359355</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4977092188619728</v>
+        <v>0.500744750804443</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5742186702194532</v>
+        <v>0.5750563455302603</v>
       </c>
     </row>
     <row r="17">
@@ -11407,19 +11407,19 @@
         <v>137664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>118703</v>
+        <v>117064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>157451</v>
+        <v>156841</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2919004852514889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2516957019203613</v>
+        <v>0.2482215971159672</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3338563104823306</v>
+        <v>0.3325634686338566</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -11428,19 +11428,19 @@
         <v>61793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50993</v>
+        <v>51756</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71995</v>
+        <v>72394</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3295683931499987</v>
+        <v>0.3295683931499986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2719686544391539</v>
+        <v>0.2760388592295104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3839794804134166</v>
+        <v>0.3861048887043173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>247</v>
@@ -11449,19 +11449,19 @@
         <v>199457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>178434</v>
+        <v>177692</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>223253</v>
+        <v>222018</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3026159063136468</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2707198856608767</v>
+        <v>0.2695942110837329</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3387198031027657</v>
+        <v>0.3368462929563099</v>
       </c>
     </row>
     <row r="18">
@@ -11478,19 +11478,19 @@
         <v>48719</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37139</v>
+        <v>36937</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63550</v>
+        <v>62678</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1033031816393523</v>
+        <v>0.1033031816393522</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07875001248120742</v>
+        <v>0.07832057978196146</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1347508353540038</v>
+        <v>0.1329016430687941</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -11499,19 +11499,19 @@
         <v>22221</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15873</v>
+        <v>15889</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30808</v>
+        <v>29641</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1185139447754673</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08465727244860928</v>
+        <v>0.08474138138617972</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1643117144647192</v>
+        <v>0.1580899020304425</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>91</v>
@@ -11520,19 +11520,19 @@
         <v>70940</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>57318</v>
+        <v>57103</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86505</v>
+        <v>88435</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1076302000689229</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08696233989460182</v>
+        <v>0.08663696751116903</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1312449762127992</v>
+        <v>0.1341729621473355</v>
       </c>
     </row>
     <row r="19">
@@ -11549,19 +11549,19 @@
         <v>19651</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12694</v>
+        <v>12840</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29231</v>
+        <v>29099</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04166739224708859</v>
+        <v>0.04166739224708858</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02691525376347113</v>
+        <v>0.02722606434299612</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06198107678379987</v>
+        <v>0.06170081234564896</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -11570,19 +11570,19 @@
         <v>5044</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9820</v>
+        <v>9434</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02690119533632645</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01274043826514294</v>
+        <v>0.01275913552249998</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05237519125955958</v>
+        <v>0.05031583324316638</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -11591,19 +11591,19 @@
         <v>24695</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16912</v>
+        <v>17367</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34289</v>
+        <v>34439</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0374668399410814</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02565940628534275</v>
+        <v>0.02634916940593135</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0520238109433226</v>
+        <v>0.05225148456184132</v>
       </c>
     </row>
     <row r="20">
@@ -11620,19 +11620,19 @@
         <v>7551</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3780</v>
+        <v>3665</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14731</v>
+        <v>13575</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01601183553871258</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008015635541061968</v>
+        <v>0.007770861761809135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03123632119949047</v>
+        <v>0.02878324315939907</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -11641,19 +11641,19 @@
         <v>2171</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6515</v>
+        <v>6209</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01157669365145428</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003063325880061092</v>
+        <v>0.003058223567129414</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03474709501249294</v>
+        <v>0.03311597913247064</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -11662,19 +11662,19 @@
         <v>9722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5107</v>
+        <v>4704</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16439</v>
+        <v>16438</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01475016704041335</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007748187177491921</v>
+        <v>0.00713689749383089</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02494153376093962</v>
+        <v>0.02493941324408545</v>
       </c>
     </row>
     <row r="21">
@@ -11766,19 +11766,19 @@
         <v>593396</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>553223</v>
+        <v>558042</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>627660</v>
+        <v>628087</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5252985643038186</v>
+        <v>0.5252985643038185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4897359210821437</v>
+        <v>0.4940022358222852</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5556310828211896</v>
+        <v>0.5560088053372059</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>653</v>
@@ -11787,19 +11787,19 @@
         <v>478474</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>454474</v>
+        <v>454575</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>503581</v>
+        <v>502930</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5559671046232838</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5280805073934988</v>
+        <v>0.5281981856245885</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5851406653758069</v>
+        <v>0.584384728379351</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1203</v>
@@ -11808,19 +11808,19 @@
         <v>1071869</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1030767</v>
+        <v>1027730</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1118821</v>
+        <v>1118190</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5385601205138497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5179084634345428</v>
+        <v>0.5163822918566829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5621511320573417</v>
+        <v>0.5618339617076862</v>
       </c>
     </row>
     <row r="23">
@@ -11837,19 +11837,19 @@
         <v>354586</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>322020</v>
+        <v>323288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>388377</v>
+        <v>388319</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3138944567411088</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2850654392891405</v>
+        <v>0.2861880101727071</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3438075389981168</v>
+        <v>0.3437561777418327</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>374</v>
@@ -11858,19 +11858,19 @@
         <v>247650</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>224951</v>
+        <v>225000</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>270554</v>
+        <v>270966</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.2877596923773712</v>
+        <v>0.2877596923773713</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2613839487110239</v>
+        <v>0.2614412722988351</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3143724876625094</v>
+        <v>0.3148518634195362</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>736</v>
@@ -11879,19 +11879,19 @@
         <v>602236</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>562760</v>
+        <v>563551</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>643867</v>
+        <v>644234</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3025933761211861</v>
+        <v>0.302593376121186</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2827582064569893</v>
+        <v>0.2831558396857686</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3235104549147187</v>
+        <v>0.3236949067610504</v>
       </c>
     </row>
     <row r="24">
@@ -11908,19 +11908,19 @@
         <v>131491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>111226</v>
+        <v>111239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>154835</v>
+        <v>152695</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1164011070107377</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09846173024709903</v>
+        <v>0.0984730289574775</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.137066347681449</v>
+        <v>0.135171923577593</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>125</v>
@@ -11929,19 +11929,19 @@
         <v>85480</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>72020</v>
+        <v>72490</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>101034</v>
+        <v>102605</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09932447061515094</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08368405597022854</v>
+        <v>0.08422992178197429</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1173974481320069</v>
+        <v>0.1192226900524485</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>266</v>
@@ -11950,19 +11950,19 @@
         <v>216971</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>192118</v>
+        <v>192249</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>244285</v>
+        <v>247806</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1090169025106427</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09652939637778404</v>
+        <v>0.09659558493797339</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1227408603992768</v>
+        <v>0.1245101351228737</v>
       </c>
     </row>
     <row r="25">
@@ -11979,19 +11979,19 @@
         <v>38788</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28604</v>
+        <v>29420</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49778</v>
+        <v>52950</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03433636193627276</v>
+        <v>0.03433636193627277</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02532145463962459</v>
+        <v>0.02604344688712193</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04406592346011061</v>
+        <v>0.04687330137109107</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -12000,19 +12000,19 @@
         <v>31298</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23647</v>
+        <v>23812</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41002</v>
+        <v>40791</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03636666130743181</v>
+        <v>0.03636666130743182</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0274773896426127</v>
+        <v>0.02766847037778409</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04764320859500847</v>
+        <v>0.04739711098389779</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>98</v>
@@ -12021,19 +12021,19 @@
         <v>70085</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56604</v>
+        <v>57179</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>85779</v>
+        <v>86835</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03521429511970267</v>
+        <v>0.03521429511970268</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02844047975107295</v>
+        <v>0.0287296123750078</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04309964256484908</v>
+        <v>0.04363033371464718</v>
       </c>
     </row>
     <row r="26">
@@ -12050,19 +12050,19 @@
         <v>11375</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6803</v>
+        <v>6160</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18802</v>
+        <v>18474</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01006951000806221</v>
+        <v>0.01006951000806222</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006022542937841764</v>
+        <v>0.00545286098698416</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.016644284676914</v>
+        <v>0.01635361126875213</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -12071,19 +12071,19 @@
         <v>17713</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11657</v>
+        <v>12177</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25274</v>
+        <v>25869</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02058207107676224</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01354470050856262</v>
+        <v>0.01414897987746825</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02936748942330463</v>
+        <v>0.03005901017919946</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -12092,19 +12092,19 @@
         <v>29088</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20633</v>
+        <v>21952</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>39522</v>
+        <v>39220</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01461530573461874</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01036682539413107</v>
+        <v>0.01102969225861839</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01985791358368903</v>
+        <v>0.01970619325090208</v>
       </c>
     </row>
     <row r="27">
@@ -12196,19 +12196,19 @@
         <v>250142</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>225686</v>
+        <v>223588</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>275880</v>
+        <v>276336</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4425346731675732</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3992698202780754</v>
+        <v>0.39555724321565</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4880698252555226</v>
+        <v>0.4888756389314708</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>525</v>
@@ -12217,19 +12217,19 @@
         <v>350980</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>325837</v>
+        <v>328148</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>375561</v>
+        <v>377223</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4236738524119497</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3933232241425811</v>
+        <v>0.3961126318525098</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4533460450106734</v>
+        <v>0.4553518835503492</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>747</v>
@@ -12238,19 +12238,19 @@
         <v>601122</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>567666</v>
+        <v>561854</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>637683</v>
+        <v>634078</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.431323469070589</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4073176343495721</v>
+        <v>0.4031473667694307</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4575566468360597</v>
+        <v>0.4549702545583874</v>
       </c>
     </row>
     <row r="29">
@@ -12267,19 +12267,19 @@
         <v>160895</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>139066</v>
+        <v>138029</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>185643</v>
+        <v>184324</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2846442224407992</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2460257580815348</v>
+        <v>0.2441912184490421</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3284270736760321</v>
+        <v>0.3260935622962575</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>388</v>
@@ -12288,19 +12288,19 @@
         <v>249607</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>227100</v>
+        <v>228353</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>270724</v>
+        <v>272294</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3013044877496444</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2741359076911579</v>
+        <v>0.2756489855991766</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3267947464126037</v>
+        <v>0.3286908683090434</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>549</v>
@@ -12309,19 +12309,19 @@
         <v>410502</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>378945</v>
+        <v>380566</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>443245</v>
+        <v>445673</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2945473776166777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2719044608948754</v>
+        <v>0.2730675805547905</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3180415905556782</v>
+        <v>0.319783709408668</v>
       </c>
     </row>
     <row r="30">
@@ -12338,19 +12338,19 @@
         <v>86325</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>70343</v>
+        <v>70831</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>104621</v>
+        <v>107941</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1527203798577383</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1244469768155722</v>
+        <v>0.1253093416149184</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1850879714400686</v>
+        <v>0.1909616045796547</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>226</v>
@@ -12359,19 +12359,19 @@
         <v>137088</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>120724</v>
+        <v>119768</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>154948</v>
+        <v>154410</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1654811094489597</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1457276467549488</v>
+        <v>0.1445740059048744</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1870398971386998</v>
+        <v>0.1863910599012171</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>314</v>
@@ -12380,19 +12380,19 @@
         <v>223413</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>200290</v>
+        <v>200605</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>251909</v>
+        <v>249381</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1603055823113989</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1437138710458056</v>
+        <v>0.1439404074034777</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1807524054530564</v>
+        <v>0.1789382062606675</v>
       </c>
     </row>
     <row r="31">
@@ -12409,19 +12409,19 @@
         <v>47193</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>35314</v>
+        <v>34972</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>64273</v>
+        <v>64636</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.083489948904535</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06247505838495906</v>
+        <v>0.0618700167505044</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1137070978310012</v>
+        <v>0.1143503464800589</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>101</v>
@@ -12430,19 +12430,19 @@
         <v>60068</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>48853</v>
+        <v>49769</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>72856</v>
+        <v>72914</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07250908730521849</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05897140318168285</v>
+        <v>0.06007678314574574</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08794557495060959</v>
+        <v>0.08801565182277157</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>152</v>
@@ -12451,19 +12451,19 @@
         <v>107261</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>88882</v>
+        <v>89888</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>125819</v>
+        <v>128345</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07696273133824921</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06377579593058684</v>
+        <v>0.06449739192127282</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09027909526573555</v>
+        <v>0.09209134243265184</v>
       </c>
     </row>
     <row r="32">
@@ -12480,19 +12480,19 @@
         <v>20694</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12590</v>
+        <v>13026</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31381</v>
+        <v>30484</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03661077562935432</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02227368913619279</v>
+        <v>0.023045518067375</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05551649712171642</v>
+        <v>0.05393037711454733</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>46</v>
@@ -12501,19 +12501,19 @@
         <v>30678</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22148</v>
+        <v>22244</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>43292</v>
+        <v>44270</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03703146308422769</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02673538736733786</v>
+        <v>0.02685128085784426</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05225889876192213</v>
+        <v>0.05343869896672764</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>68</v>
@@ -12522,19 +12522,19 @@
         <v>51372</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39496</v>
+        <v>38273</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>67435</v>
+        <v>68286</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0368608396630852</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02833989298832713</v>
+        <v>0.02746177983314299</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04838643363457177</v>
+        <v>0.04899731311440689</v>
       </c>
     </row>
     <row r="33">
@@ -12626,19 +12626,19 @@
         <v>167978</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>144642</v>
+        <v>144487</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>187776</v>
+        <v>187580</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7080882694789077</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.609715915211916</v>
+        <v>0.6090643781185003</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.79154230666535</v>
+        <v>0.7907145458242003</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>504</v>
@@ -12647,19 +12647,19 @@
         <v>398173</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>371604</v>
+        <v>368549</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>425719</v>
+        <v>427364</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4746925993667442</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4430177546136085</v>
+        <v>0.4393763685341684</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5075327124710467</v>
+        <v>0.5094939016759616</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>577</v>
@@ -12668,19 +12668,19 @@
         <v>566151</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>528218</v>
+        <v>530355</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>601468</v>
+        <v>602009</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5261483928872706</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4908959829832369</v>
+        <v>0.4928817801666473</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5589702806608653</v>
+        <v>0.5594724292351935</v>
       </c>
     </row>
     <row r="35">
@@ -12697,19 +12697,19 @@
         <v>54028</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>37215</v>
+        <v>35857</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>76572</v>
+        <v>75984</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2277470518552493</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1568722983287731</v>
+        <v>0.1511508856648163</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3227785322792184</v>
+        <v>0.3202992048679401</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>375</v>
@@ -12718,19 +12718,19 @@
         <v>269845</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>243363</v>
+        <v>242362</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>295881</v>
+        <v>296730</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3217034970618294</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2901318793139298</v>
+        <v>0.2889389770801389</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3527423617261549</v>
+        <v>0.3537553645461461</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>401</v>
@@ -12739,19 +12739,19 @@
         <v>323873</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>292073</v>
+        <v>290794</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>357401</v>
+        <v>357357</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3009893019692252</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2714357350655683</v>
+        <v>0.2702474744397464</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3321482305761992</v>
+        <v>0.332107086520205</v>
       </c>
     </row>
     <row r="36">
@@ -12768,19 +12768,19 @@
         <v>9757</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3647</v>
+        <v>3796</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23314</v>
+        <v>23962</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04113123702601677</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01537340473839689</v>
+        <v>0.01600220100923247</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09827544379918962</v>
+        <v>0.101009271436003</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>171</v>
@@ -12789,19 +12789,19 @@
         <v>108394</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>90727</v>
+        <v>93296</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>125948</v>
+        <v>126297</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1292247502843265</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1081626466142503</v>
+        <v>0.1112260179428889</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.150152186454392</v>
+        <v>0.1505686568628536</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>178</v>
@@ -12810,19 +12810,19 @@
         <v>118151</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>100198</v>
+        <v>100738</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>140331</v>
+        <v>140410</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1098031319375126</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09311829039647866</v>
+        <v>0.09362043691209564</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1304151751721564</v>
+        <v>0.1304888399526845</v>
       </c>
     </row>
     <row r="37">
@@ -12839,19 +12839,19 @@
         <v>3159</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>537</v>
+        <v>923</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8813</v>
+        <v>7823</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01331475440619025</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002265053823168171</v>
+        <v>0.003889841263414638</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03715161547916343</v>
+        <v>0.03297777716276109</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -12860,19 +12860,19 @@
         <v>41402</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>32182</v>
+        <v>31845</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>53028</v>
+        <v>52959</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0493587832575008</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03836626105175615</v>
+        <v>0.03796504855051877</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06321850656190699</v>
+        <v>0.06313601140699457</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>74</v>
@@ -12881,19 +12881,19 @@
         <v>44561</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>34438</v>
+        <v>35046</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>55245</v>
+        <v>56341</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04141230290793124</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03200495209443367</v>
+        <v>0.03257011112682015</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05134142962660596</v>
+        <v>0.05236042966260543</v>
       </c>
     </row>
     <row r="38">
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8459</v>
+        <v>9424</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.009718687233636053</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03565946987544712</v>
+        <v>0.0397264713522204</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>33</v>
@@ -12931,19 +12931,19 @@
         <v>20987</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>14779</v>
+        <v>14239</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>29185</v>
+        <v>29630</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02502037002959907</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01761905901526807</v>
+        <v>0.01697596562974451</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0347931776615092</v>
+        <v>0.03532472942212808</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>35</v>
@@ -12952,19 +12952,19 @@
         <v>23293</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>16018</v>
+        <v>16387</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>32051</v>
+        <v>33447</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02164687029806044</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01488587449632592</v>
+        <v>0.01522876399236301</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02978612967958924</v>
+        <v>0.03108403029045623</v>
       </c>
     </row>
     <row r="39">
@@ -13056,19 +13056,19 @@
         <v>1851219</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1783627</v>
+        <v>1782321</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1914457</v>
+        <v>1911501</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5386435239855444</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5189765554995878</v>
+        <v>0.5185964446688187</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5570435176599883</v>
+        <v>0.5561835498456825</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2630</v>
@@ -13077,19 +13077,19 @@
         <v>1909855</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1859627</v>
+        <v>1853285</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1959325</v>
+        <v>1967921</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5265822294732273</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5127332933327644</v>
+        <v>0.5109847541812124</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5402218083331273</v>
+        <v>0.5425921076910332</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4288</v>
@@ -13098,19 +13098,19 @@
         <v>3761075</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3675969</v>
+        <v>3681549</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3852892</v>
+        <v>3854774</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.5324506030841698</v>
+        <v>0.5324506030841697</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5204023058345658</v>
+        <v>0.5211923250055871</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5454491305081074</v>
+        <v>0.5457154931376403</v>
       </c>
     </row>
     <row r="41">
@@ -13127,19 +13127,19 @@
         <v>1019635</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>955538</v>
+        <v>960635</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1073551</v>
+        <v>1080182</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2966800095302775</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2780299104243246</v>
+        <v>0.2795130348795491</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3123679374913287</v>
+        <v>0.3142973015088953</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1578</v>
@@ -13148,19 +13148,19 @@
         <v>1065835</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1020972</v>
+        <v>1014433</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1115775</v>
+        <v>1119286</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2938703116857117</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2815008836868192</v>
+        <v>0.2796977762154636</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3076395753437682</v>
+        <v>0.3086078642598089</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2613</v>
@@ -13169,19 +13169,19 @@
         <v>2085470</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2007216</v>
+        <v>2004568</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2158384</v>
+        <v>2157618</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2952373587028402</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2841591119061374</v>
+        <v>0.2837841194025422</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3055596971260394</v>
+        <v>0.3054512992910715</v>
       </c>
     </row>
     <row r="42">
@@ -13198,19 +13198,19 @@
         <v>377234</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>336427</v>
+        <v>341450</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>411364</v>
+        <v>416921</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.109762712314937</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0978892263689229</v>
+        <v>0.09935059477827894</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1196933797253372</v>
+        <v>0.1213102409372345</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>636</v>
@@ -13219,19 +13219,19 @@
         <v>410735</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>379499</v>
+        <v>376230</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>443431</v>
+        <v>445803</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1132472799166193</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.104634856598238</v>
+        <v>0.103733397023359</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.122262166455696</v>
+        <v>0.1229160976608006</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1026</v>
@@ -13240,19 +13240,19 @@
         <v>787970</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>740575</v>
+        <v>740400</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>837888</v>
+        <v>839043</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1115518777739741</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1048422273211155</v>
+        <v>0.1048175668292951</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.118618797829205</v>
+        <v>0.1187823136017321</v>
       </c>
     </row>
     <row r="43">
@@ -13269,19 +13269,19 @@
         <v>139279</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>118322</v>
+        <v>117126</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>166491</v>
+        <v>167077</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.04052543560913611</v>
+        <v>0.0405254356091361</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03442792697133702</v>
+        <v>0.03407978680043156</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0484433257816927</v>
+        <v>0.04861394742948305</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>267</v>
@@ -13290,19 +13290,19 @@
         <v>160228</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>140883</v>
+        <v>142756</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>180647</v>
+        <v>181606</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04417782715185664</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03884416947188842</v>
+        <v>0.03936047187515598</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04980762020922425</v>
+        <v>0.05007216487900178</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>421</v>
@@ -13311,19 +13311,19 @@
         <v>299507</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>270393</v>
+        <v>270473</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>330937</v>
+        <v>332184</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.04240077095575415</v>
+        <v>0.04240077095575414</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03827914152028664</v>
+        <v>0.03829052033324742</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04685038355092567</v>
+        <v>0.04702683903202644</v>
       </c>
     </row>
     <row r="44">
@@ -13340,19 +13340,19 @@
         <v>49450</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>39008</v>
+        <v>37162</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>66074</v>
+        <v>63768</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01438831856010497</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01135010530363886</v>
+        <v>0.01081292861200988</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01922533069612412</v>
+        <v>0.01855440532348294</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>122</v>
@@ -13361,19 +13361,19 @@
         <v>80235</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>66532</v>
+        <v>66919</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>98085</v>
+        <v>97769</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02212235177258506</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0183441249290258</v>
+        <v>0.01845067626351229</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0270437138146203</v>
+        <v>0.02695672105227904</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>178</v>
@@ -13382,19 +13382,19 @@
         <v>129685</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>111204</v>
+        <v>110071</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>154391</v>
+        <v>153626</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01835938948326188</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0157430341604312</v>
+        <v>0.0155826087203236</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02185692377701009</v>
+        <v>0.02174870106105425</v>
       </c>
     </row>
     <row r="45">
